--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D82CECD-322F-9D48-AA34-E023E8203F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33B8EC9-7BA6-472A-B44B-12DB41DA5749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="2080" windowWidth="26900" windowHeight="14180" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-42975" yWindow="2265" windowWidth="32220" windowHeight="15480" activeTab="2" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Price</t>
   </si>
@@ -178,23 +178,59 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6621293/pdf/zns9773.pdf</t>
   </si>
   <si>
-    <t>First preclinical paaper - 2012</t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>https://cdn.clinicaltrials.gov/large-docs/03/NCT04079803/Prot_000.pdf</t>
+  </si>
+  <si>
+    <t>Stossel T, Condeelis J, Cooley L, HartwigJ, NoegelA,SchleicherM,ShapiroS (2001) Filamins as integrators of cell mechanics and signalling. Nat Rev Mol Cell Biol 2:138–145</t>
+  </si>
+  <si>
+    <t>2008 - High-Affinity Naloxone Binding to Filamin A Prevents Mu Opioid Receptor–Gs Coupling Underlying Opioid Tolerance and Dependence - Hoau-Yan Wang et al., retracted</t>
+  </si>
+  <si>
+    <t>Purports that naloxone binds filamin A with 200x affinity vs. MOR</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2212716/</t>
+  </si>
+  <si>
+    <t>EP2488177A1, WO2010051476, US73231187</t>
+  </si>
+  <si>
+    <t>2010 - PTI-609: a novel analgesic that binds filamin A to control opioid signaling</t>
+  </si>
+  <si>
+    <t>2012 - First preclinical paper - Reducing Amyloid-Related Alzheimer’s Disease Pathogenesis by a Small Molecule Targeting Filamin A - Hoau-Yan Wang et al.</t>
+  </si>
+  <si>
+    <t>2023 - Simufilam Reverses Aberrant Receptor Interactions of Filamin A in Alzheimer’s Disease</t>
+  </si>
+  <si>
+    <t>FRET study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -338,38 +374,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{35E2A1ED-F0F4-4E05-86A3-12775715A9FA}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -387,14 +426,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>55608</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>74706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>135259</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>2519</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>2518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,13 +487,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>82175</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>52294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>809812</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>48137</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -810,19 +849,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5403B-E27B-7442-9713-8F8BFE17F52A}">
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
-    <col min="2" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="8.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
+    <col min="2" max="9" width="10.875" style="1"/>
+    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
@@ -840,7 +879,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
@@ -858,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="G4" s="11"/>
       <c r="I4" s="1" t="s">
@@ -869,7 +908,7 @@
         <v>1379.3147724999999</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="G5" s="11"/>
       <c r="I5" s="1" t="s">
@@ -882,7 +921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
       <c r="G6" s="11"/>
       <c r="I6" s="1" t="s">
@@ -895,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="G7" s="11"/>
       <c r="I7" s="1" t="s">
@@ -906,7 +945,7 @@
         <v>1172.0237725</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -914,12 +953,12 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
@@ -940,19 +979,19 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -968,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -980,7 +1019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -997,7 +1036,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1030,7 +1069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1051,25 +1090,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1085,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,7 +1132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1101,146 +1140,194 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" s="7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="7" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C15" s="7" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="7" t="s">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D23" s="7" t="s">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D24" s="6" t="s">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D25" s="1" t="s">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="1">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="1">
         <v>19.3</v>
       </c>
-      <c r="E27" s="1">
-        <f>D27-0.9</f>
+      <c r="E28" s="1">
+        <f>D28-0.9</f>
         <v>18.400000000000002</v>
-      </c>
-      <c r="F27" s="19">
-        <f>E27/D27-1</f>
-        <v>-4.663212435233155E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D28" s="1">
-        <v>21.9</v>
-      </c>
-      <c r="E28" s="1">
-        <f>D28-1.5</f>
-        <v>20.399999999999999</v>
       </c>
       <c r="F28" s="19">
         <f>E28/D28-1</f>
+        <v>-4.663212435233155E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D29-1.5</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F29" s="19">
+        <f>E29/D29-1</f>
         <v>-6.8493150684931559E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="F31"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C33" s="7" t="s">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C34" s="1" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C35" s="1" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C39" s="7" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C40" s="1" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C41" s="1" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C42" s="1" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C91" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C92" s="1" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="20" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33B8EC9-7BA6-472A-B44B-12DB41DA5749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA93774A-CE91-423D-9A96-81C4008FF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42975" yWindow="2265" windowWidth="32220" windowHeight="15480" activeTab="2" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-50220" yWindow="1860" windowWidth="25650" windowHeight="18315" activeTab="3" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="3" r:id="rId2"/>
     <sheet name="simufilam" sheetId="2" r:id="rId3"/>
+    <sheet name="AB" sheetId="4" r:id="rId4"/>
+    <sheet name="FLNA" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>Price</t>
   </si>
@@ -178,9 +180,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6621293/pdf/zns9773.pdf</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>IP</t>
   </si>
   <si>
@@ -212,19 +211,202 @@
   </si>
   <si>
     <t>FRET study</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38361142/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38937296/</t>
+  </si>
+  <si>
+    <t>alpha7</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38649596/</t>
+  </si>
+  <si>
+    <t>CathD</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38309203/</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>lipid bilayers</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38540718/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37105231/</t>
+  </si>
+  <si>
+    <t>ABCA1</t>
+  </si>
+  <si>
+    <t>midkine, pleotrophin</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38076912/</t>
+  </si>
+  <si>
+    <t>alpha-synuclein</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37964757/</t>
+  </si>
+  <si>
+    <t>apoE</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/38010414/</t>
+  </si>
+  <si>
+    <t>PTI-125 binds and reverses an altered conformation of the scaffolding protein filamin A (FLNA) to prevent Aβ42's tight binding to and toxic signaling via the α7-nicotinic acetylcholine receptor (α7nAChR) as well as Aβ42's aberrant activation of toll-like receptor 4 (TLR4). Hence, by restoring FLNA's native shape and blocking these two toxic cascades, PTI-125 reduces both tau hyperphosphorylation and neuroinflammation. Downstream effects include reduced neurofibrillary lesions and amyloid deposits, suggesting disease modification, and improved synaptic plasticity and function of α7nAChR, NMDAR and insulin receptors, suggesting symptomatic improvement.</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>T1/2=4 hours, Cmax 1100ng/mL, 0.6 CSF ratio</t>
+  </si>
+  <si>
+    <t>100mL</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33330477/</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/study/NCT03748706</t>
+  </si>
+  <si>
+    <t>https://reporter.nih.gov/search/CIo6aSQ6a0K-2obP5mPCyA/project-details/9828895</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/ix?doc=/Archives/edgar/data/1069530/000117184322005276/f8k_080222.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/ix?doc=/Archives/edgar/data/1069530/000106953022000046/sava-20220922x8k.htm</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20460118/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36506473/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36399251/</t>
+  </si>
+  <si>
+    <t>PTI-125 binds and reverses an altered conformation of filamin A to reduce Alzheimer's disease pathogenesis</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22815492/</t>
+  </si>
+  <si>
+    <t>Cortexzyme</t>
+  </si>
+  <si>
+    <t>Athira</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>amyloid beta</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>1982 - Selkoe</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>Highly implicated in Alzheimer's and Downs. Primary component of neuritic plaques.</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>APP (beta-amyloid precursor protein), chromosome 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mutations in APP can cause hereditary cerebral hemorrhage with amyloidosis</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>APP cleaved by alpha-secretase, beta-secretase, gamma-secretase</t>
+  </si>
+  <si>
+    <t>Presenilin (PS1, PS2) alter APP metabolism via gamma-secretase</t>
+  </si>
+  <si>
+    <t>Tau mutations cause FTD with parkinsonism (no amyloid)</t>
+  </si>
+  <si>
+    <t>Preclinical</t>
+  </si>
+  <si>
+    <t>amyloid beta toxicity is tau dependent</t>
+  </si>
+  <si>
+    <t>apoE genetic findings are causal with amyloid</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>Humans without AD can have cortical AB deposits.</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>monomers, oligomers, fibrils (insoluble), filaments, protofibrils</t>
+  </si>
+  <si>
+    <t>Molecules</t>
+  </si>
+  <si>
+    <t>bapineuzumab</t>
+  </si>
+  <si>
+    <t>PS1 metabolized by presenilinase</t>
+  </si>
+  <si>
+    <t>Epsilon secretase is apparently a thing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -374,31 +556,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -424,16 +613,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>55608</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19890</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>135259</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>2518</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>658200</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>32425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -463,8 +652,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4575314" y="6850530"/>
-          <a:ext cx="5055063" cy="7652401"/>
+          <a:off x="1231794" y="6830490"/>
+          <a:ext cx="4772566" cy="7144914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -486,15 +675,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>82175</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>232570</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>52294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>809812</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>48137</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133035</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -517,8 +706,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3772646" y="2517588"/>
-          <a:ext cx="4873813" cy="1146314"/>
+          <a:off x="3922254" y="2619031"/>
+          <a:ext cx="4863492" cy="1118790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -850,15 +1039,20 @@
   <dimension ref="B2:K10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
-    <col min="2" max="9" width="10.875" style="1"/>
+    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="8" width="10.875" style="1"/>
+    <col min="9" max="9" width="7.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="1"/>
+    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
@@ -952,11 +1146,6 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F9" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I10" s="1" t="s">
@@ -1090,11 +1279,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
-    </sheetView>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1103,12 +1290,12 @@
     <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +1311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1132,7 +1319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1140,164 +1327,189 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="22"/>
+      <c r="C7" s="24">
+        <f>1100*0.5^6*0.6</f>
+        <v>10.3125</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1">
+        <f>+C7*100</f>
+        <v>1031.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="7" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="7" t="s">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D24" s="7" t="s">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D25" s="6" t="s">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H27" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D26" s="1" t="s">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D28" s="1">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="21">
         <v>19.3</v>
       </c>
-      <c r="E28" s="1">
-        <f>D28-0.9</f>
+      <c r="E29" s="21">
+        <f>D29-0.9</f>
         <v>18.400000000000002</v>
-      </c>
-      <c r="F28" s="19">
-        <f>E28/D28-1</f>
-        <v>-4.663212435233155E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D29" s="1">
-        <v>21.9</v>
-      </c>
-      <c r="E29" s="1">
-        <f>D29-1.5</f>
-        <v>20.399999999999999</v>
       </c>
       <c r="F29" s="19">
         <f>E29/D29-1</f>
+        <v>-4.663212435233155E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D30" s="21">
+        <v>21.9</v>
+      </c>
+      <c r="E30" s="21">
+        <f>D30-1.5</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F30" s="19">
+        <f>E30/D30-1</f>
         <v>-6.8493150684931559E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F32"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
@@ -1307,27 +1519,67 @@
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1337,4 +1589,261 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF72D3-2991-459E-8CD9-066D094028D4}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3DCC59B5-4B52-4B19-9497-5A1C7982EEF0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
+  <dimension ref="B3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA93774A-CE91-423D-9A96-81C4008FF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261C719-28A7-445F-8B90-2A59A0336481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50220" yWindow="1860" windowWidth="25650" windowHeight="18315" activeTab="3" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-32400" yWindow="1515" windowWidth="30195" windowHeight="18150" activeTab="3" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
   <si>
     <t>Price</t>
   </si>
@@ -382,13 +382,115 @@
   </si>
   <si>
     <t>Epsilon secretase is apparently a thing.</t>
+  </si>
+  <si>
+    <t>Papers</t>
+  </si>
+  <si>
+    <t>3D structure of Alzheimer’s amyloid-Beta(1– 42) fibrils. Luhrs et al. PNAS 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fibrils are noncrystalline, insoluble and mesoscopically heterogeneous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AB42 is the dominant species in AD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AB42 is more likely to form fibrils in vitro than AB40.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Fibrils form a cross-Beta structure that conaints parallel, in-register Beta sheets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Amyloid beta forms beta strands (5-10 aa) which are perpendicular to the long axis of the fibril.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      The strands are parallel to each other and in-register (adjacent strands are positioned opposite each other)</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>salt bridge from D23-K28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H/D exchange experiment showed core is highly protected.</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/2BEG</t>
+  </si>
+  <si>
+    <t>18-26 is Beta-strand one, 31-42 is Beta-strand two, both in core.</t>
+  </si>
+  <si>
+    <t>1-17 is exposed.</t>
+  </si>
+  <si>
+    <t>DAEFRHDSGYEVHHQKLVFFAEDVGSNKGAIIGLMVGGVVIA</t>
+  </si>
+  <si>
+    <t>The toxic Aβ oligomer and Alzheimer’s disease: an emperor in need of clothes. Benilova et al. Nature Neurosci 2012.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Some amyloid beta is intracellular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Neuronal tangles contain p-tau and amyloid plaques, they aggregate extracellularly, in cytoplasm, in the nucleus and at the cell membrane?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Is amyloid beta typically extracellular?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  There is no amyloid beta dementia--tau is required.</t>
+  </si>
+  <si>
+    <t>APOJ</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>MW 4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Is monomeric nontoxic? Monomeric is produced in neurons from APP by B- and gamma-secretase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Alpha secretase does not generate full length amyloid beta and creates non toxic products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C-terminal is defined by gamma-secretase, creating AB43, AB42, AB40, AB38, AB37.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AB40 is continuously produced by healthy and AD brains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pyroglutamate AB is significant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Insoluble, hydrophobic amyloid plaques may or may not be toxic while soluble oligomeric amyloid beta may be toxic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SDS can artificially induce AB oligos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  All amyloid beta species show synaptotoxicity, LTP/LTD alterations, neurotransmission and cognitive impacts in rodents.</t>
+  </si>
+  <si>
+    <t>transglutaminase TG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Amylospheroids (10-15nm spherical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  J20 mouse model expresses human APP with two familial mutations.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,6 +551,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -558,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -589,6 +700,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -708,6 +820,55 @@
         <a:xfrm>
           <a:off x="3922254" y="2619031"/>
           <a:ext cx="4863492" cy="1118790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>86556</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>40451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>354091</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>120007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3846CF00-E3B9-4D9E-7D54-63D044158203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9644686" y="8786886"/>
+          <a:ext cx="4392275" cy="2663730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF72D3-2991-459E-8CD9-066D094028D4}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1688,121 +1849,288 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
       <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1810,6 +2138,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3DCC59B5-4B52-4B19-9497-5A1C7982EEF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261C719-28A7-445F-8B90-2A59A0336481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1093D31F-5D67-4679-94CE-387F6F3E35C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="1515" windowWidth="30195" windowHeight="18150" activeTab="3" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-40140" yWindow="3510" windowWidth="31875" windowHeight="16470" activeTab="3" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -497,6 +497,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -551,15 +557,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -667,38 +664,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
@@ -842,9 +839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>354091</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>120007</xdr:rowOff>
+      <xdr:colOff>354092</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>53746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1442,7 +1439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView topLeftCell="A109" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1498,7 +1497,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="22"/>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <f>1100*0.5^6*0.6</f>
         <v>10.3125</v>
       </c>
@@ -1734,12 +1733,12 @@
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" s="25" t="s">
+      <c r="C120" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="24" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1756,380 +1755,383 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF72D3-2991-459E-8CD9-066D094028D4}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="45.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="9" style="25"/>
+    <col min="5" max="5" width="10.25" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="C6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="C6" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="C7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="C7" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="C8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="C8" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="C10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="C10" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="C11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="C11" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="C12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="C12" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="C15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="C15" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C47" s="26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="25" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="25" t="s">
         <v>147</v>
       </c>
     </row>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1093D31F-5D67-4679-94CE-387F6F3E35C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BDF85B-E66A-4427-A938-5AF1CE06118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40140" yWindow="3510" windowWidth="31875" windowHeight="16470" activeTab="3" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Options" sheetId="3" r:id="rId2"/>
-    <sheet name="simufilam" sheetId="2" r:id="rId3"/>
-    <sheet name="AB" sheetId="4" r:id="rId4"/>
-    <sheet name="FLNA" sheetId="5" r:id="rId5"/>
+    <sheet name="Alzheimer's" sheetId="7" r:id="rId2"/>
+    <sheet name="Options" sheetId="3" r:id="rId3"/>
+    <sheet name="simufilam" sheetId="2" r:id="rId4"/>
+    <sheet name="Prior Failures" sheetId="6" r:id="rId5"/>
+    <sheet name="AB" sheetId="4" r:id="rId6"/>
+    <sheet name="FLNA" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="202">
   <si>
     <t>Price</t>
   </si>
@@ -484,19 +486,197 @@
   </si>
   <si>
     <t xml:space="preserve">  J20 mouse model expresses human APP with two familial mutations.</t>
+  </si>
+  <si>
+    <t>12/20/24 5 PUTS</t>
+  </si>
+  <si>
+    <t>12/20/24 10 PUTS</t>
+  </si>
+  <si>
+    <t>12/20/24 7.5 PUTS</t>
+  </si>
+  <si>
+    <t>PRICE ON FAILURE</t>
+  </si>
+  <si>
+    <t>STRIKE</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>1/14/25 5.00 PUTS</t>
+  </si>
+  <si>
+    <t>1/14/25 2.50 PUTS</t>
+  </si>
+  <si>
+    <t>1/14/25 7.50 PUTS</t>
+  </si>
+  <si>
+    <t>bapinizeumab</t>
+  </si>
+  <si>
+    <t>Anavex</t>
+  </si>
+  <si>
+    <t>Vivoryon</t>
+  </si>
+  <si>
+    <t>Cognition Therapeutics</t>
+  </si>
+  <si>
+    <t>gantenerumab</t>
+  </si>
+  <si>
+    <t>Neurotrope</t>
+  </si>
+  <si>
+    <t>intepirdine</t>
+  </si>
+  <si>
+    <t>Annovis</t>
+  </si>
+  <si>
+    <t>crenezumab</t>
+  </si>
+  <si>
+    <t>ACIU</t>
+  </si>
+  <si>
+    <t>BioXCel</t>
+  </si>
+  <si>
+    <t>VTV Therapeutics</t>
+  </si>
+  <si>
+    <t>Prana</t>
+  </si>
+  <si>
+    <t>BioVie</t>
+  </si>
+  <si>
+    <t>TauRx Therapeutics</t>
+  </si>
+  <si>
+    <t>verubecestat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semorinemab </t>
+  </si>
+  <si>
+    <t>Axonyx - phenserine?</t>
+  </si>
+  <si>
+    <t>troriluzole</t>
+  </si>
+  <si>
+    <t>Neurochem tramiprosate</t>
+  </si>
+  <si>
+    <t>statins</t>
+  </si>
+  <si>
+    <t>solanezumab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medivation latrepirdine </t>
+  </si>
+  <si>
+    <t>Victoza</t>
+  </si>
+  <si>
+    <t>Focused Ultrasound</t>
+  </si>
+  <si>
+    <t>Tacrine</t>
+  </si>
+  <si>
+    <t>idalopirdine</t>
+  </si>
+  <si>
+    <t>Alzheimer’s Disease: Key Insights from Two Decades of Clinical Trial Failures. J Alzheimer's 2022</t>
+  </si>
+  <si>
+    <t>5.8 million Americans, 10% of people over 65.</t>
+  </si>
+  <si>
+    <t>GV-971 oligomannate</t>
+  </si>
+  <si>
+    <t>BACE inhibitors</t>
+  </si>
+  <si>
+    <t>elenbecestat, umibecestat, atabecestat, lanabecestat, verubecestat</t>
+  </si>
+  <si>
+    <t>Amyloid</t>
+  </si>
+  <si>
+    <t>aducanumab, gantenerumab, crenezumab, solanezumab, bapineuzumab</t>
+  </si>
+  <si>
+    <t>Simufilam</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Tg2576 mice - express APP variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;6mo have no disease, 6-14 months develop memory deficits without neuronal loss, old mice &gt;14 mo form neuritic plaques</t>
+  </si>
+  <si>
+    <t>A speciﬁc amyloid-b protein assembly in the brain impairs memory. Lesne et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AB*56 purified from brains of mice disrupts memory when given to young rats.</t>
+  </si>
+  <si>
+    <t>A structural model for Alzheimer’s B-amyloid fibrils based on experimental constraints from solid state NMR. Petkova et al. PNAS 2002.</t>
+  </si>
+  <si>
+    <t>AB40 - DAEFRHDSGYEVHHQKLVFFAEDVGSNKGAIIGLMVGGVV</t>
+  </si>
+  <si>
+    <t>Amyloid fibrils, 10nm diameter, micrometer long length, filaments. Noncrystalline solid, so hard to XRC.</t>
+  </si>
+  <si>
+    <t>X-ray fiber diffraction shows Beta-sheet motifs with beta strands perpendicular to the long axis, along with parallel H-bonds.</t>
+  </si>
+  <si>
+    <t>Solid state NMR implies in-register parallel alignment within cross-Beta motif in amyloid1-40 and 1-42 fibrils.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -557,6 +737,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -664,40 +853,58 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1194,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5403B-E27B-7442-9713-8F8BFE17F52A}">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1304,11 +1511,21 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
+      <c r="J8" s="2">
+        <f>+J5/J3</f>
+        <v>4.3207079115075597</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1319,26 +1536,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ABFF95-7EFA-4FFF-9E22-334733664B4D}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB174C9-0CD0-A84D-8068-D9E1E881842B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="6" width="10.875" style="1"/>
+    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1354,7 +1670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1366,7 +1682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +1699,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1394,7 +1710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1405,7 +1721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1415,8 +1731,14 @@
       <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1425,6 +1747,130 @@
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="21">
+        <v>5</v>
+      </c>
+      <c r="F13" s="31">
+        <f>+E13-$H$10</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="28">
+        <f>+F13/C13-1</f>
+        <v>0.81818181818181812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="31">
+        <f>+E14-$H$10</f>
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="28">
+        <f>+F14/C14-1</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="29">
+        <v>3</v>
+      </c>
+      <c r="E15" s="21">
+        <v>10</v>
+      </c>
+      <c r="F15" s="31">
+        <f>+E15-$H$10</f>
+        <v>7</v>
+      </c>
+      <c r="G15" s="28">
+        <f>+F15/C15-1</f>
+        <v>1.3333333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E17" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="31">
+        <f>+E17-$H$10</f>
+        <v>-0.5</v>
+      </c>
+      <c r="G17" s="28">
+        <f>+F17/C17-1</f>
+        <v>-2.8181818181818183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E18" s="32">
+        <v>5</v>
+      </c>
+      <c r="F18" s="31">
+        <f>+E18-$H$10</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="28">
+        <f>+F18/C18-1</f>
+        <v>0.81818181818181812</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="E19" s="32">
+        <v>7.5</v>
+      </c>
+      <c r="F19" s="31">
+        <f>+E19-$H$10</f>
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="28">
+        <f>+F19/C19-1</f>
+        <v>0.91489361702127647</v>
       </c>
     </row>
   </sheetData>
@@ -1435,13 +1881,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1586,6 +2030,9 @@
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="35" t="s">
+        <v>191</v>
+      </c>
       <c r="D29" s="21">
         <v>19.3</v>
       </c>
@@ -1593,12 +2040,19 @@
         <f>D29-0.9</f>
         <v>18.400000000000002</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="37">
         <f>E29/D29-1</f>
         <v>-4.663212435233155E-2</v>
       </c>
+      <c r="G29" s="36">
+        <f>+D29-E29</f>
+        <v>0.89999999999999858</v>
+      </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="35" t="s">
+        <v>192</v>
+      </c>
       <c r="D30" s="21">
         <v>21.9</v>
       </c>
@@ -1606,9 +2060,13 @@
         <f>D30-1.5</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="37">
         <f>E30/D30-1</f>
         <v>-6.8493150684931559E-2</v>
+      </c>
+      <c r="G30" s="36">
+        <f>+D30-E30</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.2">
@@ -1751,12 +2209,182 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBB5C22-BBD9-4AC3-B6BF-2498FD31D616}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{DF7DFE6D-CAF1-47D7-A9C5-B319B5C90249}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF72D3-2991-459E-8CD9-066D094028D4}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2144,7 +2772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
   <dimension ref="B3:B6"/>
   <sheetViews>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BDF85B-E66A-4427-A938-5AF1CE06118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7359B9C-E3BC-754A-BBB8-65D35A494C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-39740" yWindow="-20760" windowWidth="32720" windowHeight="16660" activeTab="1" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -737,15 +737,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -855,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -900,11 +891,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1407,20 +1396,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="8" width="10.875" style="1"/>
-    <col min="9" max="9" width="7.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="1"/>
+    <col min="4" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="7.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1427,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1456,7 +1445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="12"/>
       <c r="G4" s="11"/>
       <c r="I4" s="1" t="s">
@@ -1467,7 +1456,7 @@
         <v>1379.3147724999999</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="12"/>
       <c r="G5" s="11"/>
       <c r="I5" s="1" t="s">
@@ -1480,7 +1469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="12"/>
       <c r="G6" s="11"/>
       <c r="I6" s="1" t="s">
@@ -1493,7 +1482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="12"/>
       <c r="G7" s="11"/>
       <c r="I7" s="1" t="s">
@@ -1504,7 +1493,7 @@
         <v>1172.0237725</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -1516,15 +1505,15 @@
         <v>4.3207079115075597</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H17" s="27"/>
     </row>
   </sheetData>
@@ -1539,97 +1528,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ABFF95-7EFA-4FFF-9E22-334733664B4D}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="34" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="34" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="34" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="34" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="34" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{281B8411-A076-8846-AFAE-894534B26E9A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1640,21 +1633,21 @@
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.875" style="1"/>
-    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1670,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1699,7 +1692,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1710,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1721,7 +1714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1738,7 +1731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1749,7 +1742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
       <c r="E12" s="30" t="s">
@@ -1759,7 +1752,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="27" t="s">
         <v>148</v>
       </c>
@@ -1778,7 +1771,7 @@
         <v>0.81818181818181812</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="27" t="s">
         <v>150</v>
       </c>
@@ -1797,7 +1790,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="27" t="s">
         <v>149</v>
       </c>
@@ -1816,7 +1809,7 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>155</v>
       </c>
@@ -1835,7 +1828,7 @@
         <v>-2.8181818181818183</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="27" t="s">
         <v>154</v>
       </c>
@@ -1854,7 +1847,7 @@
         <v>0.81818181818181812</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>156</v>
       </c>
@@ -1887,19 +1880,19 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1907,7 +1900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1915,7 +1908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1923,7 +1916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +1924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="22" t="s">
         <v>75</v>
       </c>
@@ -1939,7 +1932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="22"/>
       <c r="C7" s="23">
         <f>1100*0.5^6*0.6</f>
@@ -1953,7 +1946,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
         <v>46</v>
       </c>
@@ -1961,62 +1954,62 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D26" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
@@ -2024,13 +2017,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="35" t="s">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C29" s="34" t="s">
         <v>191</v>
       </c>
       <c r="D29" s="21">
@@ -2040,17 +2033,17 @@
         <f>D29-0.9</f>
         <v>18.400000000000002</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <f>E29/D29-1</f>
         <v>-4.663212435233155E-2</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="35">
         <f>+D29-E29</f>
         <v>0.89999999999999858</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="35" t="s">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C30" s="34" t="s">
         <v>192</v>
       </c>
       <c r="D30" s="21">
@@ -2060,142 +2053,142 @@
         <f>D30-1.5</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <f>E30/D30-1</f>
         <v>-6.8493150684931559E-2</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="35">
         <f>+D30-E30</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.15">
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C40" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C90" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C91" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C93" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C94" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C97" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C101" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C102" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C103" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C106" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C111" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C112" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C113" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C114" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C115" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C116" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C120" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C121" s="24" t="s">
         <v>89</v>
       </c>
@@ -2215,158 +2208,158 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>183</v>
       </c>
@@ -2387,22 +2380,22 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="45.875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="25" customWidth="1"/>
     <col min="4" max="4" width="9" style="25"/>
-    <col min="5" max="5" width="10.25" style="25" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="25" customWidth="1"/>
     <col min="6" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="25" t="s">
         <v>90</v>
@@ -2411,7 +2404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="25" t="s">
         <v>92</v>
@@ -2420,7 +2413,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="25" t="s">
         <v>94</v>
@@ -2429,7 +2422,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="25" t="s">
         <v>96</v>
@@ -2438,25 +2431,25 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="C6" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="C7" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="C8" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="25" t="s">
         <v>99</v>
@@ -2465,25 +2458,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="C10" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="C11" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="C12" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="25" t="s">
         <v>135</v>
@@ -2492,7 +2485,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="25" t="s">
         <v>103</v>
@@ -2501,13 +2494,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="C15" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="25" t="s">
         <v>122</v>
@@ -2516,7 +2509,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="25" t="s">
         <v>106</v>
@@ -2525,7 +2518,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="25" t="s">
         <v>108</v>
@@ -2534,7 +2527,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
@@ -2543,15 +2536,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="25" t="s">
         <v>58</v>
       </c>
@@ -2559,7 +2552,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="25" t="s">
         <v>60</v>
       </c>
@@ -2567,7 +2560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="25" t="s">
         <v>62</v>
       </c>
@@ -2575,7 +2568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="25" t="s">
         <v>65</v>
       </c>
@@ -2583,7 +2576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" s="25" t="s">
         <v>66</v>
       </c>
@@ -2591,7 +2584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" s="25" t="s">
         <v>69</v>
       </c>
@@ -2599,7 +2592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" s="25" t="s">
         <v>71</v>
       </c>
@@ -2607,7 +2600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B29" s="25" t="s">
         <v>73</v>
       </c>
@@ -2615,17 +2608,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F30" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="25" t="s">
         <v>114</v>
       </c>
@@ -2633,132 +2626,132 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C35" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C36" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C37" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C38" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C39" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C40" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C41" s="25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C42" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C43" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C44" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C45" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C47" s="26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C48" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C50" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C51" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C52" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C53" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C54" s="25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C55" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C56" s="25" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C57" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C58" s="25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C59" s="25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C60" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C61" s="25" t="s">
         <v>147</v>
       </c>
@@ -2780,24 +2773,24 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>85</v>
       </c>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BDF85B-E66A-4427-A938-5AF1CE06118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C25163-71FB-43CA-A6A9-D82088B78235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-50340" yWindow="660" windowWidth="23235" windowHeight="19350" activeTab="3" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Alzheimer's" sheetId="7" r:id="rId2"/>
     <sheet name="Options" sheetId="3" r:id="rId3"/>
     <sheet name="simufilam" sheetId="2" r:id="rId4"/>
-    <sheet name="Prior Failures" sheetId="6" r:id="rId5"/>
-    <sheet name="AB" sheetId="4" r:id="rId6"/>
-    <sheet name="FLNA" sheetId="5" r:id="rId7"/>
+    <sheet name="Prior Successes" sheetId="8" r:id="rId5"/>
+    <sheet name="Prior Failures" sheetId="6" r:id="rId6"/>
+    <sheet name="AB" sheetId="4" r:id="rId7"/>
+    <sheet name="FLNA" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="214">
   <si>
     <t>Price</t>
   </si>
@@ -648,6 +649,42 @@
   </si>
   <si>
     <t>Solid state NMR implies in-register parallel alignment within cross-Beta motif in amyloid1-40 and 1-42 fibrils.</t>
+  </si>
+  <si>
+    <t>Oncothyreon</t>
+  </si>
+  <si>
+    <t>Telik</t>
+  </si>
+  <si>
+    <t>Northfield</t>
+  </si>
+  <si>
+    <t>Celladon</t>
+  </si>
+  <si>
+    <t>Vital Therapies</t>
+  </si>
+  <si>
+    <t>Regeneron (Axokine)</t>
+  </si>
+  <si>
+    <t>MannKind</t>
+  </si>
+  <si>
+    <t>Cytori</t>
+  </si>
+  <si>
+    <t>Axovant</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Arena</t>
   </si>
 </sst>
 </file>
@@ -658,13 +695,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -741,6 +784,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -853,58 +904,59 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -931,13 +983,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19890</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>21128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>658200</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>32425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -990,16 +1042,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>232570</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>820283</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>52294</xdr:rowOff>
+      <xdr:rowOff>64453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133035</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>720748</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>48136</xdr:rowOff>
+      <xdr:rowOff>60295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1022,8 +1074,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3922254" y="2619031"/>
-          <a:ext cx="4863492" cy="1118790"/>
+          <a:off x="3685889" y="2982751"/>
+          <a:ext cx="4861572" cy="1130735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1539,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ABFF95-7EFA-4FFF-9E22-334733664B4D}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1585,7 +1637,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="34" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1605,7 +1657,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="34" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1883,9 +1935,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1986,50 +2040,50 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D26" s="7" t="s">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D27" s="6" t="s">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="1">
+      <c r="G27" s="38">
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D28" s="1" t="s">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C29" s="35" t="s">
         <v>191</v>
       </c>
@@ -2049,7 +2103,7 @@
         <v>0.89999999999999858</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C30" s="35" t="s">
         <v>192</v>
       </c>
@@ -2069,134 +2123,131 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C40" s="7" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="7" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="7" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="20" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="20" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="20" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C103" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C106" s="7" t="s">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="7" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="1" t="s">
-        <v>81</v>
+      <c r="C113" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C115" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C116" s="22" t="s">
+      <c r="C114" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" s="24" t="s">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" s="24" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="24" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2210,6 +2261,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EE29F2-3957-4D7C-AE5D-DDC5FCCA90AD}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{574EA796-9F48-416C-9C44-58114DC160E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBB5C22-BBD9-4AC3-B6BF-2498FD31D616}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -2379,7 +2524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF72D3-2991-459E-8CD9-066D094028D4}">
   <dimension ref="A1:F61"/>
   <sheetViews>
@@ -2772,7 +2917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
   <dimension ref="B3:B6"/>
   <sheetViews>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C25163-71FB-43CA-A6A9-D82088B78235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71EB1C7-7840-4098-8D66-1F9411DC0969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50340" yWindow="660" windowWidth="23235" windowHeight="19350" activeTab="3" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-45465" yWindow="3525" windowWidth="38700" windowHeight="15345" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Alzheimer's" sheetId="7" r:id="rId2"/>
-    <sheet name="Options" sheetId="3" r:id="rId3"/>
-    <sheet name="simufilam" sheetId="2" r:id="rId4"/>
-    <sheet name="Prior Successes" sheetId="8" r:id="rId5"/>
-    <sheet name="Prior Failures" sheetId="6" r:id="rId6"/>
-    <sheet name="AB" sheetId="4" r:id="rId7"/>
-    <sheet name="FLNA" sheetId="5" r:id="rId8"/>
+    <sheet name="Phase 2" sheetId="9" r:id="rId2"/>
+    <sheet name="Alzheimer's" sheetId="7" r:id="rId3"/>
+    <sheet name="Options" sheetId="3" r:id="rId4"/>
+    <sheet name="simufilam" sheetId="2" r:id="rId5"/>
+    <sheet name="Prior Successes" sheetId="8" r:id="rId6"/>
+    <sheet name="Prior Failures" sheetId="6" r:id="rId7"/>
+    <sheet name="AB" sheetId="4" r:id="rId8"/>
+    <sheet name="FLNA" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="218">
   <si>
     <t>Price</t>
   </si>
@@ -685,23 +686,42 @@
   </si>
   <si>
     <t>Arena</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>100mg</t>
+  </si>
+  <si>
+    <t>Day 28 (TAYLOR'S VERSION)</t>
+  </si>
+  <si>
+    <t>Day 28 (REAL DATA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -904,59 +924,69 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -977,7 +1007,942 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Phase 2'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 28 (TAYLOR'S VERSION)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Phase 2'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Placebo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50mg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100mg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Phase 2'!$C$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75C5-4EA1-AA1D-9D982223B511}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Phase 2'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 28 (REAL DATA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Phase 2'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Placebo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50mg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100mg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Phase 2'!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75C5-4EA1-AA1D-9D982223B511}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1172989488"/>
+        <c:axId val="1172986608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1172989488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172986608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1172986608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172989488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40506</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>155866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502593</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFB9334-1AF8-EDF7-69BA-A1ECB6A59A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1042,16 +2007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>820283</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>64453</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>532244</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>17840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>720748</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>60295</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>642458</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1074,8 +2039,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3685889" y="2982751"/>
-          <a:ext cx="4861572" cy="1130735"/>
+          <a:off x="903218" y="4028366"/>
+          <a:ext cx="9219122" cy="2426981"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1087,7 +2052,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1455,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5403B-E27B-7442-9713-8F8BFE17F52A}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1526,7 +2491,8 @@
         <v>3</v>
       </c>
       <c r="J5" s="3">
-        <v>207.291</v>
+        <f>207.291-40</f>
+        <v>167.291</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>6</v>
@@ -1553,7 +2519,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>1172.0237725</v>
+        <v>1212.0237725</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1565,7 +2531,7 @@
       <c r="G8" s="15"/>
       <c r="J8" s="2">
         <f>+J5/J3</f>
-        <v>4.3207079115075597</v>
+        <v>3.4869605878885777</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -1588,6 +2554,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDBF6CD-BB76-4181-B4DE-0DE80E7A6091}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="41"/>
+    <col min="6" max="16384" width="9" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="42">
+        <v>-1.5</v>
+      </c>
+      <c r="D3" s="43">
+        <v>-5.7</v>
+      </c>
+      <c r="E3" s="43">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="42">
+        <v>-3.4</v>
+      </c>
+      <c r="D4" s="42">
+        <v>-2.8</v>
+      </c>
+      <c r="E4" s="42">
+        <v>-0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A42DDAC3-A7A2-4817-8AA3-8B8FC9D5D8EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ABFF95-7EFA-4FFF-9E22-334733664B4D}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1686,7 +2719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB174C9-0CD0-A84D-8068-D9E1E881842B}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -1933,12 +2966,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A58" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2260,7 +3293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EE29F2-3957-4D7C-AE5D-DDC5FCCA90AD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2354,7 +3387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBB5C22-BBD9-4AC3-B6BF-2498FD31D616}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -2524,7 +3557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF72D3-2991-459E-8CD9-066D094028D4}">
   <dimension ref="A1:F61"/>
   <sheetViews>
@@ -2917,7 +3950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
   <dimension ref="B3:B6"/>
   <sheetViews>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71EB1C7-7840-4098-8D66-1F9411DC0969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F839FD5E-0471-4589-867C-67990BD7AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45465" yWindow="3525" windowWidth="38700" windowHeight="15345" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-51165" yWindow="495" windowWidth="37305" windowHeight="20700" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="226">
   <si>
     <t>Price</t>
   </si>
@@ -698,6 +698,30 @@
   </si>
   <si>
     <t>Day 28 (REAL DATA)</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>None, Garbage</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>100%, no one wants it</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>The many faces of filamin: A versatile molecular scaffold for cell motility and signalling</t>
+  </si>
+  <si>
+    <t>The filamins: Organizers of cell structure and function</t>
   </si>
 </sst>
 </file>
@@ -709,13 +733,19 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -924,69 +954,71 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2420,9 +2452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5403B-E27B-7442-9713-8F8BFE17F52A}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2444,10 +2474,18 @@
       <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="D2" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>46</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2461,6 +2499,15 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="G3" s="11"/>
       <c r="I3" s="1" t="s">
@@ -2513,6 +2560,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="11"/>
       <c r="I7" s="1" t="s">
         <v>5</v>
@@ -2535,7 +2583,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J9" s="27"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I10" s="1" t="s">
@@ -2543,7 +2591,7 @@
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="27"/>
+      <c r="H17" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2561,10 +2609,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="41"/>
-    <col min="6" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="4.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="40"/>
+    <col min="6" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2573,41 +2621,41 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>-1.5</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="42">
         <v>-5.7</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>-4.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>-3.4</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>-2.8</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>-0.1</v>
       </c>
     </row>
@@ -2644,7 +2692,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2670,7 +2718,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2690,7 +2738,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2816,7 +2864,7 @@
       <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>151</v>
       </c>
       <c r="H10" s="2">
@@ -2837,123 +2885,123 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>148</v>
       </c>
       <c r="C13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>5</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="30">
         <f>+E13-$H$10</f>
         <v>2</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <f>+F13/C13-1</f>
         <v>0.81818181818181812</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>150</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>7.5</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="30">
         <f>+E14-$H$10</f>
         <v>4.5</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <f>+F14/C14-1</f>
         <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>3</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>10</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="30">
         <f>+E15-$H$10</f>
         <v>7</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <f>+F15/C15-1</f>
         <v>1.3333333333333335</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>155</v>
       </c>
       <c r="C17" s="2">
         <v>0.27500000000000002</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>2.5</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="30">
         <f>+E17-$H$10</f>
         <v>-0.5</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <f>+F17/C17-1</f>
         <v>-2.8181818181818183</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>154</v>
       </c>
       <c r="C18" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <v>5</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <f>+E18-$H$10</f>
         <v>2</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <f>+F18/C18-1</f>
         <v>0.81818181818181812</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>156</v>
       </c>
       <c r="C19" s="1">
         <v>2.35</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <v>7.5</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <f>+E19-$H$10</f>
         <v>4.5</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <f>+F19/C19-1</f>
         <v>0.91489361702127647</v>
       </c>
@@ -2970,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3019,20 +3067,20 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22">
         <f>1100*0.5^6*0.6</f>
         <v>10.3125</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="1">
@@ -3041,10 +3089,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3107,7 +3155,7 @@
       <c r="C27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="37">
         <v>0.6</v>
       </c>
     </row>
@@ -3117,47 +3165,47 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>19.3</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <f>D29-0.9</f>
         <v>18.400000000000002</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <f>E29/D29-1</f>
         <v>-4.663212435233155E-2</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="35">
         <f>+D29-E29</f>
         <v>0.89999999999999858</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>21.9</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <f>D30-1.5</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <f>E30/D30-1</f>
         <v>-6.8493150684931559E-2</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="35">
         <f>+D30-E30</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F31" s="19"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
@@ -3175,7 +3223,7 @@
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3185,7 +3233,7 @@
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3205,7 +3253,7 @@
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3215,12 +3263,12 @@
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3230,7 +3278,7 @@
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3265,22 +3313,22 @@
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="23" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3308,7 +3356,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3333,7 +3381,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
       <c r="C6" t="s">
@@ -3362,7 +3410,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>210</v>
       </c>
       <c r="C10" t="s">
@@ -3400,7 +3448,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3567,12 +3615,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="45.875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="9" style="25"/>
-    <col min="5" max="5" width="10.25" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="4.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="45.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24"/>
+    <col min="5" max="5" width="10.25" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -3582,142 +3630,142 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3725,219 +3773,219 @@
       <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="24" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="24" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="24" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3952,35 +4000,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
-  <dimension ref="B3:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{376CB7D8-4C8B-428A-B581-01FE863DD687}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F839FD5E-0471-4589-867C-67990BD7AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53C6FC5-ED8F-43D1-AFD7-DF0988D2A48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51165" yWindow="495" windowWidth="37305" windowHeight="20700" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-51150" yWindow="1905" windowWidth="28410" windowHeight="16860" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="233">
   <si>
     <t>Price</t>
   </si>
@@ -722,6 +722,27 @@
   </si>
   <si>
     <t>The filamins: Organizers of cell structure and function</t>
+  </si>
+  <si>
+    <t>https://seekingalpha.com/article/281421-oncothyreon-phase-iii-unlikely-to-show-survival-benefit</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/2006/12/20/blood-substitute-a-disaster-in-trial/</t>
+  </si>
+  <si>
+    <t>https://pdfcoffee.com/vtl-writeup-by-martin-shkreli-pdf-free.html</t>
+  </si>
+  <si>
+    <t>Atherogenix</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H_g8xjYufHo</t>
   </si>
 </sst>
 </file>
@@ -956,7 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1019,6 +1040,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2040,15 +2062,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>532244</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>17840</xdr:rowOff>
+      <xdr:colOff>512191</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>642458</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38505</xdr:rowOff>
+      <xdr:colOff>622405</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>98663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2071,7 +2093,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="903218" y="4028366"/>
+          <a:off x="883165" y="4890629"/>
           <a:ext cx="9219122" cy="2426981"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2452,14 +2474,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5403B-E27B-7442-9713-8F8BFE17F52A}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="8" width="10.875" style="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.875" style="1"/>
     <col min="9" max="9" width="7.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
@@ -3018,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3343,88 +3369,167 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EE29F2-3957-4D7C-AE5D-DDC5FCCA90AD}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
-        <v>206</v>
-      </c>
       <c r="C6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="46">
+        <v>40749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>209</v>
       </c>
       <c r="C9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="E9">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>213</v>
+      <c r="D13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53C6FC5-ED8F-43D1-AFD7-DF0988D2A48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A8FE8A-441E-401F-8109-A4342EF408B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51150" yWindow="1905" windowWidth="28410" windowHeight="16860" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-51555" yWindow="270" windowWidth="22860" windowHeight="20145" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="253">
   <si>
     <t>Price</t>
   </si>
@@ -743,6 +743,66 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=H_g8xjYufHo</t>
+  </si>
+  <si>
+    <t>filamin A</t>
+  </si>
+  <si>
+    <t>Xq28, 47 exons, two transcripts</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>one actin-binding domain with 24 repeat Ig domains (96 AAs each)</t>
+  </si>
+  <si>
+    <t>Rod1, Rod2, Rep. 24,</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cytoplasm</t>
+  </si>
+  <si>
+    <t>Sp1 promoter.</t>
+  </si>
+  <si>
+    <t>calpain</t>
+  </si>
+  <si>
+    <t>Homologous to filamin B/C</t>
+  </si>
+  <si>
+    <t>Expression for filamin A &amp; B is wide, C is in skeletal &amp; myocardial tissue</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>280kda</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>determines shape and movement of cells by binding actin</t>
+  </si>
+  <si>
+    <t>It can act as a scaffold (???) for signaling molecules or as an adhesion protein???</t>
+  </si>
+  <si>
+    <t>Gene Dosage</t>
+  </si>
+  <si>
+    <t>periventricular nodular heterotopia (brain malformation due to cellular migration deficit). Males die after birth or soon after.</t>
+  </si>
+  <si>
+    <t>Heart valve, bone, GI, megakaryocyte</t>
+  </si>
+  <si>
+    <t>Cancer?</t>
   </si>
 </sst>
 </file>
@@ -754,7 +814,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -869,6 +929,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -977,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1041,6 +1118,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2103,6 +2182,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>814367</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>51287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>344527</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>89521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF35A53E-316E-7297-B653-5A7C8692280C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11958617" y="8022979"/>
+          <a:ext cx="7809583" cy="5518773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>291072</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>124126</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>70252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FD8561-D5B7-E95F-0158-37FCABA780BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12263264" y="14880980"/>
+          <a:ext cx="8112477" cy="4122041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2144,6 +2345,55 @@
         <a:xfrm>
           <a:off x="9644686" y="8786886"/>
           <a:ext cx="4392275" cy="2663730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>310733</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>43541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA1A861-6830-C39B-95B3-8DA5CAD0B9B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7081647" y="244927"/>
+          <a:ext cx="4096787" cy="2753753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2474,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5403B-E27B-7442-9713-8F8BFE17F52A}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K13" sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2485,7 +2735,9 @@
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.875" style="1"/>
+    <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
@@ -3042,10 +3294,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3147,37 +3399,39 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="N24"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="6" t="s">
         <v>40</v>
       </c>
@@ -3185,12 +3439,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="34" t="s">
         <v>191</v>
       </c>
@@ -3210,7 +3464,7 @@
         <v>0.89999999999999858</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="34" t="s">
         <v>192</v>
       </c>
@@ -3230,10 +3484,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
@@ -3386,24 +3640,26 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47">
         <v>2003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47">
         <v>2004</v>
       </c>
     </row>
@@ -3519,16 +3775,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="47">
         <v>2017</v>
       </c>
     </row>
@@ -4105,47 +4361,154 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="33" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="33" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4154,5 +4517,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{376CB7D8-4C8B-428A-B581-01FE863DD687}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A8FE8A-441E-401F-8109-A4342EF408B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB5422C-5F18-48CB-8D6E-CF6E5FA45966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51555" yWindow="270" windowWidth="22860" windowHeight="20145" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-41910" yWindow="840" windowWidth="40455" windowHeight="19950" activeTab="3" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="254">
   <si>
     <t>Price</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>Cancer?</t>
+  </si>
+  <si>
+    <t>12/20/24 2.5 PUTS</t>
   </si>
 </sst>
 </file>
@@ -814,13 +817,19 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1052,74 +1061,75 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2724,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5403B-E27B-7442-9713-8F8BFE17F52A}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K13" sqref="A1:K13"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3047,9 +3057,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB174C9-0CD0-A84D-8068-D9E1E881842B}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3146,7 +3158,7 @@
         <v>151</v>
       </c>
       <c r="H10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3171,94 +3183,95 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
-        <v>148</v>
+      <c r="B13" s="49" t="s">
+        <v>253</v>
       </c>
       <c r="C13" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E13" s="20">
-        <v>5</v>
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="29">
+        <v>2.5</v>
       </c>
       <c r="F13" s="30">
         <f>+E13-$H$10</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="27">
         <f>+F13/C13-1</f>
-        <v>0.81818181818181812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E14" s="20">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="F14" s="30">
         <f>+E14-$H$10</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="27">
         <f>+F14/C14-1</f>
-        <v>1.25</v>
+        <v>1.7272727272727271</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="28">
-        <v>3</v>
+        <v>150</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.75</v>
       </c>
       <c r="E15" s="20">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F15" s="30">
         <f>+E15-$H$10</f>
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G15" s="27">
         <f>+F15/C15-1</f>
-        <v>1.3333333333333335</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="E17" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="F17" s="30">
-        <f>+E17-$H$10</f>
-        <v>-0.5</v>
-      </c>
-      <c r="G17" s="27">
-        <f>+F17/C17-1</f>
-        <v>-2.8181818181818183</v>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="28">
+        <v>2.9</v>
+      </c>
+      <c r="E16" s="20">
+        <v>10</v>
+      </c>
+      <c r="F16" s="30">
+        <f>+E16-$H$10</f>
+        <v>8</v>
+      </c>
+      <c r="G16" s="27">
+        <f>+F16/C16-1</f>
+        <v>1.7586206896551726</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E18" s="31">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="30">
         <f>+E18-$H$10</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="27">
         <f>+F18/C18-1</f>
@@ -3267,21 +3280,40 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.35</v>
+        <v>154</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E19" s="31">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="F19" s="30">
         <f>+E19-$H$10</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="G19" s="27">
         <f>+F19/C19-1</f>
-        <v>0.91489361702127647</v>
+        <v>1.7272727272727271</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="E20" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="F20" s="30">
+        <f>+E20-$H$10</f>
+        <v>5.5</v>
+      </c>
+      <c r="G20" s="27">
+        <f>+F20/C20-1</f>
+        <v>1.3404255319148937</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4396,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB5422C-5F18-48CB-8D6E-CF6E5FA45966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0EFD28-46A3-49C1-B726-362040750341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41910" yWindow="840" windowWidth="40455" windowHeight="19950" activeTab="3" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-23685" yWindow="1080" windowWidth="22905" windowHeight="18675" firstSheet="1" activeTab="8" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="266">
   <si>
     <t>Price</t>
   </si>
@@ -806,6 +806,42 @@
   </si>
   <si>
     <t>12/20/24 2.5 PUTS</t>
+  </si>
+  <si>
+    <t>Filamin A promotes tau aggregation</t>
+  </si>
+  <si>
+    <t>Nagoya University Graduate School of Medicine.</t>
+  </si>
+  <si>
+    <t>Actin-binding protein filamin-A drives tau aggregation and contributes to progressive supranuclear palsy pathology. Tsujikawa et al. Sci Adv 2022.</t>
+  </si>
+  <si>
+    <t>Meanwhile, the findings of no increase in FLNA levels under massive tau induction in tau transgenic mice (fig. S3) suggest that the FLNA lies upstream to the tau pathology.</t>
+  </si>
+  <si>
+    <t>F-actin binds at the N terminus and "promotes orthogonal branching of F-actin"</t>
+  </si>
+  <si>
+    <t>Mutations</t>
+  </si>
+  <si>
+    <t>p.Ala39Gly loses F-actin binding</t>
+  </si>
+  <si>
+    <t>Tau also binds to F-actin.</t>
+  </si>
+  <si>
+    <t>Ser(2523) can be phosphorylated and result in decreased binding to F-actin.</t>
+  </si>
+  <si>
+    <t>Serine 2523 phosphorylation allows for tau solubility.</t>
+  </si>
+  <si>
+    <t>Amyloid-beta alters protein conformation of FLNA (debunked?)</t>
+  </si>
+  <si>
+    <t>Memantine reduced FLNA expression by nearly half in the hippocampus</t>
   </si>
 </sst>
 </file>
@@ -817,13 +853,31 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1061,75 +1115,79 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2089,16 +2147,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19890</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>21128</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>824396</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>658200</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>32425</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>818029</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>117075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2128,8 +2186,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1231794" y="6830490"/>
-          <a:ext cx="4772566" cy="7144914"/>
+          <a:off x="1194190" y="7541558"/>
+          <a:ext cx="4151015" cy="6000164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2194,16 +2252,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>814367</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>51287</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444873</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>16174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>344527</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>89521</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>423932</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>77619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2233,8 +2291,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11958617" y="8022979"/>
-          <a:ext cx="7809583" cy="5518773"/>
+          <a:off x="14913348" y="13694074"/>
+          <a:ext cx="12409184" cy="8805395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2255,16 +2313,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>291072</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>139211</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>221652</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>124126</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>70252</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>717132</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2294,8 +2352,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12263264" y="14880980"/>
-          <a:ext cx="8112477" cy="4122041"/>
+          <a:off x="16358123" y="5874002"/>
+          <a:ext cx="14592480" cy="7203262"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,8 +2436,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>292720</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2893,7 +2951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDBF6CD-BB76-4181-B4DE-0DE80E7A6091}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3059,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB174C9-0CD0-A84D-8068-D9E1E881842B}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -3328,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3339,20 +3397,21 @@
     <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3360,15 +3419,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3376,7 +3436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>75</v>
       </c>
@@ -3384,7 +3444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7" s="22">
         <f>1100*0.5^6*0.6</f>
@@ -3398,7 +3458,7 @@
         <v>1031.25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>46</v>
       </c>
@@ -3406,27 +3466,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
@@ -4393,155 +4453,219 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="52" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="52" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="52" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="52" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="52" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="52" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="52" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="52" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" s="52" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="52" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" s="52" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="52" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="52" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" s="52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" s="52" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C22" s="52" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="52" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="33" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="33" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="52" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0EFD28-46A3-49C1-B726-362040750341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF42882-0F1F-4914-9A02-51ABEFFC4779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23685" yWindow="1080" windowWidth="22905" windowHeight="18675" firstSheet="1" activeTab="8" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-49170" yWindow="2340" windowWidth="29640" windowHeight="15345" firstSheet="1" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -694,9 +694,6 @@
     <t>100mg</t>
   </si>
   <si>
-    <t>Day 28 (TAYLOR'S VERSION)</t>
-  </si>
-  <si>
     <t>Day 28 (REAL DATA)</t>
   </si>
   <si>
@@ -842,6 +839,9 @@
   </si>
   <si>
     <t>Memantine reduced FLNA expression by nearly half in the hippocampus</t>
+  </si>
+  <si>
+    <t>Day 28 (BURNS' VERSION)</t>
   </si>
 </sst>
 </file>
@@ -853,13 +853,19 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1115,79 +1121,79 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1238,7 +1244,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Day 28 (TAYLOR'S VERSION)</c:v>
+                  <c:v>Day 28 (BURNS' VERSION)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2107,15 +2113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>40506</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>155866</xdr:rowOff>
+      <xdr:colOff>671126</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>502593</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>155822</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450041</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2252,16 +2258,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>444873</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>16174</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>706810</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>39986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>423932</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>77619</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>685868</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>101431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2291,8 +2297,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14913348" y="13694074"/>
-          <a:ext cx="12409184" cy="8805395"/>
+          <a:off x="14422810" y="4421486"/>
+          <a:ext cx="12480621" cy="9062570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2313,16 +2319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>221652</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>136590</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>678799</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>49694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>717132</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>497397</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>136416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2352,8 +2358,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16358123" y="5874002"/>
-          <a:ext cx="14592480" cy="7203262"/>
+          <a:off x="6029364" y="8067259"/>
+          <a:ext cx="8101207" cy="4228027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2821,13 +2827,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="45" t="s">
         <v>46</v>
@@ -2847,13 +2853,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="11"/>
       <c r="I3" s="1" t="s">
@@ -2951,7 +2957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDBF6CD-BB76-4181-B4DE-0DE80E7A6091}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2978,8 +2986,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
-        <v>216</v>
+      <c r="B3" s="53" t="s">
+        <v>265</v>
       </c>
       <c r="C3" s="41">
         <v>-1.5</v>
@@ -2993,7 +3001,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="41">
         <v>-3.4</v>
@@ -3242,7 +3250,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C13" s="2">
         <v>0.25</v>
@@ -3386,8 +3394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3736,7 +3744,7 @@
         <v>207</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47">
@@ -3745,10 +3753,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47">
@@ -3760,10 +3768,10 @@
         <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4">
         <v>2006</v>
@@ -3774,10 +3782,10 @@
         <v>204</v>
       </c>
       <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
         <v>228</v>
-      </c>
-      <c r="D5" t="s">
-        <v>229</v>
       </c>
       <c r="E5">
         <v>2006</v>
@@ -3788,10 +3796,10 @@
         <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="46">
         <v>40749</v>
@@ -3802,7 +3810,7 @@
         <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7">
         <v>2011</v>
@@ -3835,7 +3843,7 @@
         <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10">
         <v>2014</v>
@@ -3846,7 +3854,7 @@
         <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11">
         <v>2015</v>
@@ -3860,7 +3868,7 @@
         <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E12">
         <v>2015</v>
@@ -3874,7 +3882,7 @@
         <v>211</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="47">
         <v>2017</v>
@@ -4455,7 +4463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4476,7 +4484,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4484,115 +4492,115 @@
         <v>96</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>246</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>249</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="52" t="s">
         <v>244</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="52" t="s">
         <v>238</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="52" t="s">
         <v>259</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
@@ -4600,7 +4608,7 @@
         <v>99</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -4630,42 +4638,42 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C29" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C31" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="53" t="s">
-        <v>256</v>
+      <c r="C34" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF42882-0F1F-4914-9A02-51ABEFFC4779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240562AB-84E0-4607-A9DE-6E11F34EAAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49170" yWindow="2340" windowWidth="29640" windowHeight="15345" firstSheet="1" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -853,13 +853,19 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1121,79 +1127,82 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2215,15 +2224,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>512191</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77997</xdr:rowOff>
+      <xdr:colOff>679460</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>622405</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>98663</xdr:rowOff>
+      <xdr:colOff>789674</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2246,8 +2255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="883165" y="4890629"/>
-          <a:ext cx="9219122" cy="2426981"/>
+          <a:off x="1051167" y="5309777"/>
+          <a:ext cx="9217044" cy="2459995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2258,16 +2267,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>706810</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>39986</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>256664</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>685868</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>101431</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>18319</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>45564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2297,8 +2306,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14422810" y="4421486"/>
-          <a:ext cx="12480621" cy="9062570"/>
+          <a:off x="14712683" y="4087196"/>
+          <a:ext cx="12180790" cy="8765830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2799,7 +2808,7 @@
   <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2826,16 +2835,16 @@
       <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -2852,13 +2861,13 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>222</v>
       </c>
       <c r="G3" s="11"/>
@@ -2912,7 +2921,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
-      <c r="F7" s="44"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="11"/>
       <c r="I7" s="1" t="s">
         <v>5</v>
@@ -2935,7 +2944,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J9" s="26"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I10" s="1" t="s">
@@ -2943,7 +2952,7 @@
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="26"/>
+      <c r="H17" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2957,16 +2966,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDBF6CD-BB76-4181-B4DE-0DE80E7A6091}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="40"/>
-    <col min="6" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="4.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="39"/>
+    <col min="6" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2975,41 +2984,42 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="40">
         <v>-1.5</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>-5.7</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>-4.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="40">
         <v>-3.4</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="40">
         <v>-2.8</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <v>-0.1</v>
       </c>
     </row>
@@ -3026,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ABFF95-7EFA-4FFF-9E22-334733664B4D}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3046,7 +3056,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3072,7 +3082,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3092,7 +3102,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3220,7 +3230,7 @@
       <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>151</v>
       </c>
       <c r="H10" s="2">
@@ -3241,35 +3251,35 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>252</v>
       </c>
       <c r="C13" s="2">
         <v>0.25</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>2.5</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="29">
         <f>+E13-$H$10</f>
         <v>0.5</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <f>+F13/C13-1</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>148</v>
       </c>
       <c r="C14" s="2">
@@ -3278,17 +3288,17 @@
       <c r="E14" s="20">
         <v>5</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <f>+E14-$H$10</f>
         <v>3</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="26">
         <f>+F14/C14-1</f>
         <v>1.7272727272727271</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>150</v>
       </c>
       <c r="C15" s="2">
@@ -3297,87 +3307,87 @@
       <c r="E15" s="20">
         <v>7.5</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <f>+E15-$H$10</f>
         <v>5.5</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="26">
         <f>+F15/C15-1</f>
         <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>2.9</v>
       </c>
       <c r="E16" s="20">
         <v>10</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <f>+E16-$H$10</f>
         <v>8</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <f>+F16/C16-1</f>
         <v>1.7586206896551726</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>155</v>
       </c>
       <c r="C18" s="2">
         <v>0.27500000000000002</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>2.5</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <f>+E18-$H$10</f>
         <v>0.5</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="26">
         <f>+F18/C18-1</f>
         <v>0.81818181818181812</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>154</v>
       </c>
       <c r="C19" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <v>5</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <f>+E19-$H$10</f>
         <v>3</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <f>+F19/C19-1</f>
         <v>1.7272727272727271</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>156</v>
       </c>
       <c r="C20" s="1">
         <v>2.35</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="30">
         <v>7.5</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <f>+E20-$H$10</f>
         <v>5.5</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <f>+F20/C20-1</f>
         <v>1.3404255319148937</v>
       </c>
@@ -3394,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3417,7 +3427,7 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3434,7 +3444,7 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -3454,7 +3464,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
-      <c r="C7" s="22">
+      <c r="C7" s="54">
         <f>1100*0.5^6*0.6</f>
         <v>10.3125</v>
       </c>
@@ -3535,7 +3545,7 @@
       <c r="C27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="36">
         <v>0.6</v>
       </c>
     </row>
@@ -3545,7 +3555,7 @@
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>191</v>
       </c>
       <c r="D29" s="20">
@@ -3555,17 +3565,17 @@
         <f>D29-0.9</f>
         <v>18.400000000000002</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="35">
         <f>E29/D29-1</f>
         <v>-4.663212435233155E-2</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="34">
         <f>+D29-E29</f>
         <v>0.89999999999999858</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>192</v>
       </c>
       <c r="D30" s="20">
@@ -3575,11 +3585,11 @@
         <f>D30-1.5</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="35">
         <f>E30/D30-1</f>
         <v>-6.8493150684931559E-2</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="34">
         <f>+D30-E30</f>
         <v>1.5</v>
       </c>
@@ -3613,7 +3623,7 @@
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="36" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3703,12 +3713,12 @@
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="22" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" s="23" t="s">
+      <c r="C119" s="22" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3735,31 +3745,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46">
         <v>2003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46">
         <v>2004</v>
       </c>
     </row>
@@ -3801,7 +3811,7 @@
       <c r="D6" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>40749</v>
       </c>
     </row>
@@ -3861,7 +3871,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>206</v>
       </c>
       <c r="C12" t="s">
@@ -3875,16 +3885,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="46">
         <v>2017</v>
       </c>
     </row>
@@ -3909,7 +3919,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4076,12 +4086,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="45.875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9" style="24"/>
-    <col min="5" max="5" width="10.25" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="4.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="45.875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9" style="23"/>
+    <col min="5" max="5" width="10.25" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4091,142 +4101,142 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4234,219 +4244,219 @@
       <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="23" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="23" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="23" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="23" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4469,9 +4479,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="52" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="4.875" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="51" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4480,33 +4490,33 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>234</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4524,115 +4534,115 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="51" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="51" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="51" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="51" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="51" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="51" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="51" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="51" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="51" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="51" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="51" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4652,27 +4662,27 @@
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="51" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="51" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="51" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="51" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="51" t="s">
         <v>262</v>
       </c>
     </row>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240562AB-84E0-4607-A9DE-6E11F34EAAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75D5D2B-B62F-46DE-B5A5-69B38A60C614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-47880" yWindow="4230" windowWidth="28650" windowHeight="15345" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Alzheimer's" sheetId="7" r:id="rId3"/>
     <sheet name="Options" sheetId="3" r:id="rId4"/>
     <sheet name="simufilam" sheetId="2" r:id="rId5"/>
-    <sheet name="Prior Successes" sheetId="8" r:id="rId6"/>
-    <sheet name="Prior Failures" sheetId="6" r:id="rId7"/>
-    <sheet name="AB" sheetId="4" r:id="rId8"/>
-    <sheet name="FLNA" sheetId="5" r:id="rId9"/>
+    <sheet name="Insiders" sheetId="10" r:id="rId6"/>
+    <sheet name="Prior Successes" sheetId="8" r:id="rId7"/>
+    <sheet name="Prior Failures" sheetId="6" r:id="rId8"/>
+    <sheet name="AB" sheetId="4" r:id="rId9"/>
+    <sheet name="FLNA" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="305">
   <si>
     <t>Price</t>
   </si>
@@ -842,24 +843,149 @@
   </si>
   <si>
     <t>Day 28 (BURNS' VERSION)</t>
+  </si>
+  <si>
+    <t>Eric Schoen</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Robert Cook</t>
+  </si>
+  <si>
+    <t>James Kupiec</t>
+  </si>
+  <si>
+    <t>Nachtrab</t>
+  </si>
+  <si>
+    <t>Remi Barbier</t>
+  </si>
+  <si>
+    <t>Sanford Robertson</t>
+  </si>
+  <si>
+    <t>Disposition</t>
+  </si>
+  <si>
+    <t>By Spouse</t>
+  </si>
+  <si>
+    <t>Robert Gussin</t>
+  </si>
+  <si>
+    <t>Michael O Donnell</t>
+  </si>
+  <si>
+    <t>Richard Barry</t>
+  </si>
+  <si>
+    <t>Patrick Scannon</t>
+  </si>
+  <si>
+    <t>Robert Anderson</t>
+  </si>
+  <si>
+    <t>Pierre Gravier</t>
+  </si>
+  <si>
+    <t>Claude Nicaise</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>BOD</t>
+  </si>
+  <si>
+    <t>Robert Eugene Anderson Jr</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Cashless</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>unbound/free concentration</t>
+  </si>
+  <si>
+    <t>brain concentration</t>
+  </si>
+  <si>
+    <t>ml - volume of brain</t>
+  </si>
+  <si>
+    <t>ml - volume of brain vasculature</t>
+  </si>
+  <si>
+    <t>affinity nM</t>
+  </si>
+  <si>
+    <t>g/mol</t>
+  </si>
+  <si>
+    <t>mg/mol</t>
+  </si>
+  <si>
+    <t>ug/mol</t>
+  </si>
+  <si>
+    <t>umol simufilam</t>
+  </si>
+  <si>
+    <t>nmol simufilam</t>
+  </si>
+  <si>
+    <t>T 1/2 = 4 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1127,82 +1253,91 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2232,7 +2367,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>789674</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>52199</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2267,16 +2402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>256664</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>145311</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>67893</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>64117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>18319</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>45564</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>657809</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>130022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2306,8 +2441,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14712683" y="4087196"/>
-          <a:ext cx="12180790" cy="8765830"/>
+          <a:off x="13949545" y="5033682"/>
+          <a:ext cx="12185568" cy="9011123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2335,9 +2470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>497397</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>136416</xdr:rowOff>
+      <xdr:colOff>248919</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2368,7 +2503,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="6029364" y="8067259"/>
-          <a:ext cx="8101207" cy="4228027"/>
+          <a:ext cx="8101207" cy="5102089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2962,13 +3097,237 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="51" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="51" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="51" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="51" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{376CB7D8-4C8B-428A-B581-01FE863DD687}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDBF6CD-BB76-4181-B4DE-0DE80E7A6091}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3037,7 +3396,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3404,23 +3763,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="12" width="10.875" style="1"/>
+    <col min="13" max="13" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3429,7 +3790,7 @@
       </c>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3437,7 +3798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3446,7 +3807,7 @@
       </c>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3454,15 +3815,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7" s="54">
         <f>1100*0.5^6*0.6</f>
@@ -3475,71 +3838,204 @@
         <f>+C7*100</f>
         <v>1031.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M8" s="57">
+        <v>50</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M9" s="57">
+        <f>M8*1000</f>
+        <v>50000</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M10" s="57">
+        <f>M9*1000</f>
+        <v>50000000</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M11" s="58">
+        <v>0.35</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M12" s="57">
+        <f>+M10*M11</f>
+        <v>17500000</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M14" s="57">
+        <f>+M12*M13</f>
+        <v>8750000</v>
+      </c>
+      <c r="N14" s="57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M15" s="57">
+        <f>+M14/1000</f>
+        <v>8750</v>
+      </c>
+      <c r="N15" s="57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M16" s="57">
+        <v>1250</v>
+      </c>
+      <c r="N16" s="57" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M17" s="57">
+        <v>300</v>
+      </c>
+      <c r="N17" s="57" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M18"/>
+      <c r="M18" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="N18" s="57" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="M19" s="59">
+        <v>259.35000000000002</v>
+      </c>
+      <c r="N19" s="57" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="57">
+        <f>+M19*1000</f>
+        <v>259350.00000000003</v>
+      </c>
+      <c r="N20" s="57" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M21" s="57">
+        <f>+M20*1000</f>
+        <v>259350000.00000003</v>
+      </c>
+      <c r="N21" s="57" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="M22" s="60">
+        <f>+M15/M21</f>
+        <v>3.3738191632928474E-5</v>
+      </c>
+      <c r="N22" s="57" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="61">
+        <f>+M22/1000</f>
+        <v>3.3738191632928474E-8</v>
+      </c>
+      <c r="N23" s="57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N24"/>
+      <c r="M24" s="59">
+        <f>+M23*10^9</f>
+        <v>33.738191632928476</v>
+      </c>
+      <c r="N24" s="57"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M25" s="59">
+        <f>+M16*M18*2</f>
+        <v>25</v>
+      </c>
+      <c r="N25" s="57" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="6" t="s">
@@ -3732,10 +4228,560 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266BAC07-8D7E-4E5F-806E-F6ECB70F9CC7}">
+  <dimension ref="B2:I33"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="45">
+        <v>45544</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="55">
+        <v>100000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3">
+        <v>2600841</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="45">
+        <v>45544</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="55">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="45">
+        <v>45544</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="55">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="45">
+        <v>45434</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="55">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="45">
+        <v>45434</v>
+      </c>
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="55">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="45">
+        <v>45434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="45">
+        <v>45434</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="45">
+        <v>45434</v>
+      </c>
+      <c r="C10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="55">
+        <v>5000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="45">
+        <v>44694</v>
+      </c>
+      <c r="C11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="55">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="45">
+        <v>44694</v>
+      </c>
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="45">
+        <v>44694</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="55">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="45">
+        <v>44694</v>
+      </c>
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="55">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="45">
+        <v>44694</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="45">
+        <v>44694</v>
+      </c>
+      <c r="C16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="45">
+        <v>44694</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" s="55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="45">
+        <v>44694</v>
+      </c>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="45">
+        <v>44681</v>
+      </c>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="55">
+        <v>69000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19" s="55">
+        <f>+G19*E19</f>
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="45">
+        <v>45407</v>
+      </c>
+      <c r="C20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="55">
+        <v>176085</v>
+      </c>
+      <c r="F20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20" s="55">
+        <f>+G20*E20</f>
+        <v>3873870</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="45">
+        <v>45404</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="55">
+        <v>1500</v>
+      </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
+      <c r="H21" s="55">
+        <f>+G21*E21</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="45">
+        <v>45399</v>
+      </c>
+      <c r="C22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="55">
+        <v>1500</v>
+      </c>
+      <c r="G22">
+        <v>22</v>
+      </c>
+      <c r="H22" s="55">
+        <f>+G22*E22</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="45">
+        <v>45268</v>
+      </c>
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="55">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="45">
+        <v>45267</v>
+      </c>
+      <c r="C24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="55">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="45">
+        <v>45267</v>
+      </c>
+      <c r="C25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="55">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="45">
+        <v>45203</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="55">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="45">
+        <v>45203</v>
+      </c>
+      <c r="C27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" s="55">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="45">
+        <v>45203</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="55">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="45">
+        <v>45203</v>
+      </c>
+      <c r="C29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" s="55">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="45">
+        <v>45162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E30" s="55">
+        <v>30000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G30">
+        <v>17.45</v>
+      </c>
+      <c r="H30">
+        <f>+G30*E30</f>
+        <v>523500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="45">
+        <v>45161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31">
+        <f>1906+16571</f>
+        <v>18477</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="H31">
+        <f>+G31*E31</f>
+        <v>307642.05</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="45">
+        <v>45089</v>
+      </c>
+      <c r="C32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="55">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <v>0.95</v>
+      </c>
+      <c r="H32">
+        <f>+G32*E32</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="45">
+        <v>45437</v>
+      </c>
+      <c r="C33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33">
+        <f>14285+71428</f>
+        <v>85713</v>
+      </c>
+      <c r="G33">
+        <v>16.87</v>
+      </c>
+      <c r="H33" s="56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EE29F2-3957-4D7C-AE5D-DDC5FCCA90AD}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3906,7 +4952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBB5C22-BBD9-4AC3-B6BF-2498FD31D616}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -4076,7 +5122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF72D3-2991-459E-8CD9-066D094028D4}">
   <dimension ref="A1:F61"/>
   <sheetViews>
@@ -4467,230 +5513,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
-  <dimension ref="A1:C39"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="51" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="51" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="51" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="51" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="51" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="51" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="51" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="51" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="51" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="51" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="51" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{376CB7D8-4C8B-428A-B581-01FE863DD687}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75D5D2B-B62F-46DE-B5A5-69B38A60C614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D577B76-9D39-4AA3-9DFB-DD4FB9EEFCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47880" yWindow="4230" windowWidth="28650" windowHeight="15345" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-32310" yWindow="1230" windowWidth="23010" windowHeight="19635" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>Phase III "RETHINK-ALZ" - n=804 Alzheimer's 52 weeks - NCT04994483</t>
   </si>
   <si>
-    <t>data by YE24</t>
-  </si>
-  <si>
     <t>First posted: 5/11/2020</t>
   </si>
   <si>
@@ -960,6 +957,9 @@
   </si>
   <si>
     <t>T 1/2 = 4 hours</t>
+  </si>
+  <si>
+    <t>100mg BID vs placebo. data by YE24</t>
   </si>
 </sst>
 </file>
@@ -973,13 +973,19 @@
     <numFmt numFmtId="167" formatCode="#,##0.000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1253,91 +1259,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2971,16 +2978,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -2997,13 +3004,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="11"/>
       <c r="I3" s="1" t="s">
@@ -3119,199 +3126,199 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>245</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="51" t="s">
         <v>248</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="51" t="s">
         <v>243</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="51" t="s">
         <v>237</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="51" t="s">
         <v>258</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C24" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C26" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C27" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C29" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C31" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3345,18 +3352,18 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="53"/>
       <c r="C2" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>214</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="40">
         <v>-1.5</v>
@@ -3370,7 +3377,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="40">
         <v>-3.4</v>
@@ -3411,78 +3418,78 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
         <v>187</v>
-      </c>
-      <c r="C6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
         <v>189</v>
-      </c>
-      <c r="C7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3597,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
@@ -3611,15 +3618,15 @@
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
       <c r="E12" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>152</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="2">
         <v>0.25</v>
@@ -3639,7 +3646,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2">
         <v>1.1000000000000001</v>
@@ -3658,7 +3665,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2">
         <v>1.75</v>
@@ -3677,7 +3684,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="27">
         <v>2.9</v>
@@ -3696,7 +3703,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="2">
         <v>0.27500000000000002</v>
@@ -3715,7 +3722,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="2">
         <v>1.1000000000000001</v>
@@ -3734,7 +3741,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="1">
         <v>2.35</v>
@@ -3763,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3817,10 +3824,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="M6" s="57"/>
       <c r="N6" s="57"/>
@@ -3832,7 +3839,7 @@
         <v>10.3125</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1">
         <f>+C7*100</f>
@@ -3843,16 +3850,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="57">
         <v>50</v>
       </c>
       <c r="N8" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3864,7 +3871,7 @@
         <v>50000</v>
       </c>
       <c r="N9" s="57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3876,7 +3883,7 @@
         <v>50000000</v>
       </c>
       <c r="N10" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3887,7 +3894,7 @@
         <v>0.35</v>
       </c>
       <c r="N11" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3896,7 +3903,7 @@
         <v>17500000</v>
       </c>
       <c r="N12" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -3904,7 +3911,7 @@
         <v>0.5</v>
       </c>
       <c r="N13" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -3916,19 +3923,19 @@
         <v>8750000</v>
       </c>
       <c r="N14" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>31</v>
+      <c r="C15" s="62" t="s">
+        <v>304</v>
       </c>
       <c r="M15" s="57">
         <f>+M14/1000</f>
         <v>8750</v>
       </c>
       <c r="N15" s="57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -3936,7 +3943,7 @@
         <v>1250</v>
       </c>
       <c r="N16" s="57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.2">
@@ -3944,7 +3951,7 @@
         <v>300</v>
       </c>
       <c r="N17" s="57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
@@ -3955,7 +3962,7 @@
         <v>0.01</v>
       </c>
       <c r="N18" s="57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
@@ -3966,7 +3973,7 @@
         <v>259.35000000000002</v>
       </c>
       <c r="N19" s="57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
@@ -3975,7 +3982,7 @@
         <v>259350.00000000003</v>
       </c>
       <c r="N20" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
@@ -3984,36 +3991,36 @@
         <v>259350000.00000003</v>
       </c>
       <c r="N21" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M22" s="60">
         <f>+M15/M21</f>
         <v>3.3738191632928474E-5</v>
       </c>
       <c r="N22" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23" s="61">
         <f>+M22/1000</f>
         <v>3.3738191632928474E-8</v>
       </c>
       <c r="N23" s="57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24" s="59">
         <f>+M23*10^9</f>
@@ -4027,19 +4034,19 @@
         <v>25</v>
       </c>
       <c r="N25" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="57"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="36">
         <v>0.6</v>
@@ -4047,12 +4054,12 @@
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D29" s="20">
         <v>19.3</v>
@@ -4072,7 +4079,7 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D30" s="20">
         <v>21.9</v>
@@ -4095,127 +4102,127 @@
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4246,16 +4253,16 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
         <v>267</v>
       </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>268</v>
-      </c>
       <c r="E2" s="55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -4263,16 +4270,16 @@
         <v>45544</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E3" s="55">
         <v>100000</v>
       </c>
       <c r="H3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I3">
         <v>2600841</v>
@@ -4283,10 +4290,10 @@
         <v>45544</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E4" s="55">
         <v>100000</v>
@@ -4297,10 +4304,10 @@
         <v>45544</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" s="55">
         <v>100000</v>
@@ -4311,10 +4318,10 @@
         <v>45434</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" s="55">
         <v>50000</v>
@@ -4325,10 +4332,10 @@
         <v>45434</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" s="55">
         <v>25000</v>
@@ -4339,10 +4346,10 @@
         <v>45434</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="55">
         <v>10000</v>
@@ -4353,10 +4360,10 @@
         <v>45434</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" s="55">
         <v>10000</v>
@@ -4367,16 +4374,16 @@
         <v>45434</v>
       </c>
       <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" t="s">
         <v>275</v>
-      </c>
-      <c r="D10" t="s">
-        <v>276</v>
       </c>
       <c r="E10" s="55">
         <v>5000</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -4384,10 +4391,10 @@
         <v>44694</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="55">
         <v>15000</v>
@@ -4398,10 +4405,10 @@
         <v>44694</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="55">
         <v>10000</v>
@@ -4412,10 +4419,10 @@
         <v>44694</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E13" s="55">
         <v>15000</v>
@@ -4426,10 +4433,10 @@
         <v>44694</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E14" s="55">
         <v>15000</v>
@@ -4440,10 +4447,10 @@
         <v>44694</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E15" s="55">
         <v>10000</v>
@@ -4454,10 +4461,10 @@
         <v>44694</v>
       </c>
       <c r="C16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E16" s="55">
         <v>10000</v>
@@ -4468,10 +4475,10 @@
         <v>44694</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17" s="55">
         <v>10000</v>
@@ -4482,10 +4489,10 @@
         <v>44694</v>
       </c>
       <c r="C18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="55">
         <v>10000</v>
@@ -4496,16 +4503,16 @@
         <v>44681</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="55">
         <v>69000</v>
       </c>
       <c r="F19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G19">
         <v>22</v>
@@ -4520,16 +4527,16 @@
         <v>45407</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E20" s="55">
         <v>176085</v>
       </c>
       <c r="F20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G20">
         <v>22</v>
@@ -4544,10 +4551,10 @@
         <v>45404</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E21" s="55">
         <v>1500</v>
@@ -4565,10 +4572,10 @@
         <v>45399</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E22" s="55">
         <v>1500</v>
@@ -4586,10 +4593,10 @@
         <v>45268</v>
       </c>
       <c r="C23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E23" s="55">
         <v>20000</v>
@@ -4600,10 +4607,10 @@
         <v>45267</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E24" s="55">
         <v>20000</v>
@@ -4614,10 +4621,10 @@
         <v>45267</v>
       </c>
       <c r="C25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E25" s="55">
         <v>20000</v>
@@ -4628,10 +4635,10 @@
         <v>45203</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E26" s="55">
         <v>150000</v>
@@ -4642,10 +4649,10 @@
         <v>45203</v>
       </c>
       <c r="C27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E27" s="55">
         <v>50000</v>
@@ -4656,10 +4663,10 @@
         <v>45203</v>
       </c>
       <c r="C28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E28" s="55">
         <v>150000</v>
@@ -4670,10 +4677,10 @@
         <v>45203</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E29" s="55">
         <v>450000</v>
@@ -4684,16 +4691,16 @@
         <v>45162</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E30" s="55">
         <v>30000</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G30">
         <v>17.45</v>
@@ -4708,17 +4715,17 @@
         <v>45161</v>
       </c>
       <c r="C31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E31">
         <f>1906+16571</f>
         <v>18477</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G31">
         <v>16.649999999999999</v>
@@ -4733,10 +4740,10 @@
         <v>45089</v>
       </c>
       <c r="C32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E32" s="55">
         <v>1000</v>
@@ -4754,10 +4761,10 @@
         <v>45437</v>
       </c>
       <c r="C33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E33">
         <f>14285+71428</f>
@@ -4767,7 +4774,7 @@
         <v>16.87</v>
       </c>
       <c r="H33" s="56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4797,10 +4804,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46">
@@ -4809,10 +4816,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="46">
@@ -4821,13 +4828,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4">
         <v>2006</v>
@@ -4835,13 +4842,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
         <v>227</v>
-      </c>
-      <c r="D5" t="s">
-        <v>228</v>
       </c>
       <c r="E5">
         <v>2006</v>
@@ -4849,13 +4856,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="45">
         <v>40749</v>
@@ -4863,10 +4870,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7">
         <v>2011</v>
@@ -4874,10 +4881,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>2011</v>
@@ -4885,10 +4892,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9">
         <v>2011</v>
@@ -4896,10 +4903,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10">
         <v>2014</v>
@@ -4907,10 +4914,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E11">
         <v>2015</v>
@@ -4918,13 +4925,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12">
         <v>2015</v>
@@ -4932,13 +4939,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>211</v>
-      </c>
       <c r="D13" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="46">
         <v>2017</v>
@@ -4971,147 +4978,147 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5148,142 +5155,142 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="C6" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="C7" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="C8" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="C10" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="C11" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="C12" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="C15" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>122</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5291,219 +5298,219 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F30" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C35" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C36" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C37" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C38" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C39" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C40" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C41" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C42" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C43" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C44" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C45" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C47" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C48" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D577B76-9D39-4AA3-9DFB-DD4FB9EEFCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE89993-F226-4301-A3F2-B81CB81B5519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32310" yWindow="1230" windowWidth="23010" windowHeight="19635" activeTab="4" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="240" yWindow="2520" windowWidth="22335" windowHeight="15210" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -960,6 +957,9 @@
   </si>
   <si>
     <t>100mg BID vs placebo. data by YE24</t>
+  </si>
+  <si>
+    <t>Q324</t>
   </si>
 </sst>
 </file>
@@ -973,13 +973,19 @@
     <numFmt numFmtId="167" formatCode="#,##0.000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1259,92 +1265,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2949,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5403B-E27B-7442-9713-8F8BFE17F52A}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2971,23 +2977,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>45</v>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -2997,35 +3003,35 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>8</v>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="10"/>
       <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>47.976165999999999</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>6</v>
+      <c r="K3" s="62" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="G4" s="10"/>
       <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3035,66 +3041,65 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="G5" s="10"/>
       <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="3">
-        <f>207.291-40</f>
-        <v>167.291</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>6</v>
+        <v>149</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="G6" s="10"/>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>6</v>
+      <c r="K6" s="62" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="10"/>
       <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>1212.0237725</v>
+        <v>1230.3147724999999</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
       <c r="J8" s="2">
         <f>+J5/J3</f>
-        <v>3.4869605878885777</v>
+        <v>3.105708780480708</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J9" s="25"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="25"/>
+      <c r="H17" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3114,211 +3119,211 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="51" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="4.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="50" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
+      <c r="A1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="51" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="51" t="s">
+      <c r="C6" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="50" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="50" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="51" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="51" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="51" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="50" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="51" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="51" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="51" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="51" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="51" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="51" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3338,54 +3343,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="39"/>
-    <col min="6" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="4.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="38"/>
+    <col min="6" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
+      <c r="A1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="53"/>
-      <c r="C2" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="39" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="39">
+        <v>-1.5</v>
+      </c>
+      <c r="D3" s="40">
+        <v>-5.7</v>
+      </c>
+      <c r="E3" s="40">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="37" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="40">
-        <v>-1.5</v>
-      </c>
-      <c r="D3" s="41">
-        <v>-5.7</v>
-      </c>
-      <c r="E3" s="41">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>-3.4</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>-2.8</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="39">
         <v>-0.1</v>
       </c>
     </row>
@@ -3413,83 +3418,83 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
-        <v>183</v>
+      <c r="B3" s="31" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
         <v>186</v>
-      </c>
-      <c r="C6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
         <v>188</v>
       </c>
-      <c r="C7" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
-        <v>194</v>
+      <c r="B10" s="31" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3515,8 +3520,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
+      <c r="A1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3529,7 +3534,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
@@ -3537,7 +3542,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>0.2</v>
@@ -3549,7 +3554,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <f>25-C4</f>
@@ -3565,39 +3570,39 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>22</v>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>0.75</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>0.1</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>24</v>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>150</v>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
@@ -3605,155 +3610,155 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>8.5</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="48" t="s">
-        <v>251</v>
+      <c r="B13" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="C13" s="2">
         <v>0.25</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="28">
+      <c r="D13" s="8"/>
+      <c r="E13" s="27">
         <v>2.5</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <f>+E13-$H$10</f>
         <v>0.5</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <f>+F13/C13-1</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
-        <v>147</v>
+      <c r="B14" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="C14" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>5</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <f>+E14-$H$10</f>
         <v>3</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <f>+F14/C14-1</f>
         <v>1.7272727272727271</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
-        <v>149</v>
+      <c r="B15" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="C15" s="2">
         <v>1.75</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>7.5</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <f>+E15-$H$10</f>
         <v>5.5</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <f>+F15/C15-1</f>
         <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="26">
         <v>2.9</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>10</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <f>+E16-$H$10</f>
         <v>8</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <f>+F16/C16-1</f>
         <v>1.7586206896551726</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
-        <v>154</v>
+      <c r="B18" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="C18" s="2">
         <v>0.27500000000000002</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>2.5</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <f>+E18-$H$10</f>
         <v>0.5</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <f>+F18/C18-1</f>
         <v>0.81818181818181812</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
-        <v>153</v>
+      <c r="B19" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="C19" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <v>5</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="28">
         <f>+E19-$H$10</f>
         <v>3</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <f>+F19/C19-1</f>
         <v>1.7272727272727271</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="s">
-        <v>155</v>
+      <c r="B20" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="C20" s="1">
         <v>2.35</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>7.5</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="28">
         <f>+E20-$H$10</f>
         <v>5.5</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <f>+F20/C20-1</f>
         <v>1.3404255319148937</v>
       </c>
@@ -3770,9 +3775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3784,445 +3787,445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
+      <c r="A1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="49"/>
+        <v>14</v>
+      </c>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="50"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="21"/>
-      <c r="C7" s="54">
+      <c r="B7" s="20"/>
+      <c r="C7" s="53">
         <f>1100*0.5^6*0.6</f>
         <v>10.3125</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>76</v>
+      <c r="D7" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="E7" s="1">
         <f>+C7*100</f>
         <v>1031.25</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="57">
+      <c r="B8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="57" t="s">
-        <v>289</v>
+      <c r="M8" s="56">
+        <v>50</v>
+      </c>
+      <c r="N8" s="56" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="57">
+        <v>15</v>
+      </c>
+      <c r="M9" s="56">
         <f>M8*1000</f>
         <v>50000</v>
       </c>
-      <c r="N9" s="57" t="s">
-        <v>290</v>
+      <c r="N9" s="56" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="57">
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="56">
         <f>M9*1000</f>
         <v>50000000</v>
       </c>
-      <c r="N10" s="57" t="s">
-        <v>291</v>
+      <c r="N10" s="56" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="58">
+        <v>17</v>
+      </c>
+      <c r="M11" s="57">
         <v>0.35</v>
       </c>
-      <c r="N11" s="57" t="s">
-        <v>292</v>
+      <c r="N11" s="56" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M12" s="57">
+      <c r="M12" s="56">
         <f>+M10*M11</f>
         <v>17500000</v>
       </c>
-      <c r="N12" s="57" t="s">
+      <c r="N12" s="56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M13" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="57" t="s">
-        <v>294</v>
-      </c>
-    </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="57">
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="56">
         <f>+M12*M13</f>
         <v>8750000</v>
       </c>
-      <c r="N14" s="57" t="s">
-        <v>291</v>
+      <c r="N14" s="56" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="M15" s="57">
+      <c r="C15" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="M15" s="56">
         <f>+M14/1000</f>
         <v>8750</v>
       </c>
-      <c r="N15" s="57" t="s">
-        <v>290</v>
+      <c r="N15" s="56" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M16" s="57">
+      <c r="M16" s="56">
         <v>1250</v>
       </c>
-      <c r="N16" s="57" t="s">
+      <c r="N16" s="56" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M17" s="56">
+        <v>300</v>
+      </c>
+      <c r="N17" s="56" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M17" s="57">
-        <v>300</v>
-      </c>
-      <c r="N17" s="57" t="s">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="N18" s="56" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="57">
-        <v>0.01</v>
-      </c>
-      <c r="N18" s="57" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="59">
+        <v>17</v>
+      </c>
+      <c r="M19" s="58">
         <v>259.35000000000002</v>
       </c>
-      <c r="N19" s="57" t="s">
-        <v>298</v>
+      <c r="N19" s="56" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M20" s="57">
+      <c r="M20" s="56">
         <f>+M19*1000</f>
         <v>259350.00000000003</v>
       </c>
-      <c r="N20" s="57" t="s">
-        <v>299</v>
+      <c r="N20" s="56" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M21" s="57">
+      <c r="M21" s="56">
         <f>+M20*1000</f>
         <v>259350000.00000003</v>
       </c>
-      <c r="N21" s="57" t="s">
-        <v>300</v>
+      <c r="N21" s="56" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="60">
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="59">
         <f>+M15/M21</f>
         <v>3.3738191632928474E-5</v>
       </c>
-      <c r="N22" s="57" t="s">
-        <v>301</v>
+      <c r="N22" s="56" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="61">
+        <v>30</v>
+      </c>
+      <c r="M23" s="60">
         <f>+M22/1000</f>
         <v>3.3738191632928474E-8</v>
       </c>
-      <c r="N23" s="57" t="s">
-        <v>302</v>
+      <c r="N23" s="56" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="59">
+        <v>32</v>
+      </c>
+      <c r="M24" s="58">
         <f>+M23*10^9</f>
         <v>33.738191632928476</v>
       </c>
-      <c r="N24" s="57"/>
+      <c r="N24" s="56"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M25" s="59">
+      <c r="M25" s="58">
         <f>+M16*M18*2</f>
         <v>25</v>
       </c>
-      <c r="N25" s="57" t="s">
-        <v>303</v>
+      <c r="N25" s="56" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
+      <c r="C26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="36">
+      <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="35">
         <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C29" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="20">
+      <c r="C29" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="19">
         <v>19.3</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <f>D29-0.9</f>
         <v>18.400000000000002</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="34">
         <f>E29/D29-1</f>
         <v>-4.663212435233155E-2</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <f>+D29-E29</f>
         <v>0.89999999999999858</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C30" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="C30" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="19">
         <v>21.9</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <f>D30-1.5</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="34">
         <f>E30/D30-1</f>
         <v>-6.8493150684931559E-2</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="33">
         <f>+D30-E30</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="F31" s="18"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="7" t="s">
-        <v>36</v>
+      <c r="C34" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="7" t="s">
-        <v>41</v>
+      <c r="C38" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="36" t="s">
-        <v>40</v>
+      <c r="C39" s="35" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="7" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="18" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C104" s="7" t="s">
-        <v>52</v>
+      <c r="C104" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" s="21" t="s">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" s="22" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="21" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" s="22" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4253,454 +4256,454 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
         <v>266</v>
       </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="44">
+        <v>45544</v>
+      </c>
+      <c r="C3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="55" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="45">
-        <v>45544</v>
-      </c>
-      <c r="C3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="55">
+      <c r="E3" s="54">
         <v>100000</v>
       </c>
       <c r="H3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I3">
         <v>2600841</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>45544</v>
       </c>
       <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="54">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="44">
+        <v>45544</v>
+      </c>
+      <c r="C5" t="s">
         <v>270</v>
       </c>
-      <c r="D4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="55">
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="54">
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="45">
-        <v>45544</v>
-      </c>
-      <c r="C5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" s="55">
-        <v>100000</v>
-      </c>
-    </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>45434</v>
       </c>
       <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="54">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="44">
+        <v>45434</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="54">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="44">
+        <v>45434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="54">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="44">
+        <v>45434</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="54">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="44">
+        <v>45434</v>
+      </c>
+      <c r="C10" t="s">
         <v>273</v>
       </c>
-      <c r="D6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="55">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="45">
-        <v>45434</v>
-      </c>
-      <c r="C7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="55">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="45">
-        <v>45434</v>
-      </c>
-      <c r="C8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="55">
+      <c r="D10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="54">
+        <v>5000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="44">
+        <v>44694</v>
+      </c>
+      <c r="C11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="54">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="44">
+        <v>44694</v>
+      </c>
+      <c r="C12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="54">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="45">
-        <v>45434</v>
-      </c>
-      <c r="C9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="55">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="44">
+        <v>44694</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="54">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="44">
+        <v>44694</v>
+      </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="54">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="44">
+        <v>44694</v>
+      </c>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="54">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="45">
-        <v>45434</v>
-      </c>
-      <c r="C10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="55">
-        <v>5000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="45">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="44">
         <v>44694</v>
       </c>
-      <c r="C11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="55">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="45">
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="54">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="44">
         <v>44694</v>
       </c>
-      <c r="C12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="55">
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="54">
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="45">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="44">
         <v>44694</v>
       </c>
-      <c r="C13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="55">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="45">
-        <v>44694</v>
-      </c>
-      <c r="C14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D14" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="55">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="45">
-        <v>44694</v>
-      </c>
-      <c r="C15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" t="s">
-        <v>268</v>
-      </c>
-      <c r="E15" s="55">
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="54">
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="45">
-        <v>44694</v>
-      </c>
-      <c r="C16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" t="s">
-        <v>268</v>
-      </c>
-      <c r="E16" s="55">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="45">
-        <v>44694</v>
-      </c>
-      <c r="C17" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="55">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="45">
-        <v>44694</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="44">
+        <v>44681</v>
+      </c>
+      <c r="C19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" t="s">
         <v>283</v>
       </c>
-      <c r="D18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E18" s="55">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="45">
-        <v>44681</v>
-      </c>
-      <c r="C19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" s="54">
+        <v>69000</v>
+      </c>
+      <c r="F19" t="s">
         <v>284</v>
-      </c>
-      <c r="E19" s="55">
-        <v>69000</v>
-      </c>
-      <c r="F19" t="s">
-        <v>285</v>
       </c>
       <c r="G19">
         <v>22</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="54">
         <f>+G19*E19</f>
         <v>1518000</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="45">
+      <c r="B20" s="44">
         <v>45407</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="54">
+        <v>176085</v>
+      </c>
+      <c r="F20" t="s">
         <v>284</v>
-      </c>
-      <c r="E20" s="55">
-        <v>176085</v>
-      </c>
-      <c r="F20" t="s">
-        <v>285</v>
       </c>
       <c r="G20">
         <v>22</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="54">
         <f>+G20*E20</f>
         <v>3873870</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="45">
+      <c r="B21" s="44">
         <v>45404</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D21" t="s">
-        <v>284</v>
-      </c>
-      <c r="E21" s="55">
+        <v>283</v>
+      </c>
+      <c r="E21" s="54">
         <v>1500</v>
       </c>
       <c r="G21">
         <v>22</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="54">
         <f>+G21*E21</f>
         <v>33000</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="45">
+      <c r="B22" s="44">
         <v>45399</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
-      </c>
-      <c r="E22" s="55">
+        <v>283</v>
+      </c>
+      <c r="E22" s="54">
         <v>1500</v>
       </c>
       <c r="G22">
         <v>22</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="54">
         <f>+G22*E22</f>
         <v>33000</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="45">
+      <c r="B23" s="44">
         <v>45268</v>
       </c>
       <c r="C23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" s="54">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="44">
+        <v>45267</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="54">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="44">
+        <v>45267</v>
+      </c>
+      <c r="C25" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="54">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="44">
+        <v>45203</v>
+      </c>
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="54">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="44">
+        <v>45203</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="54">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="44">
+        <v>45203</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E28" s="54">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="44">
+        <v>45203</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="54">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="44">
+        <v>45162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" t="s">
         <v>283</v>
       </c>
-      <c r="D23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E23" s="55">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="45">
-        <v>45267</v>
-      </c>
-      <c r="C24" t="s">
-        <v>282</v>
-      </c>
-      <c r="D24" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" s="55">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="45">
-        <v>45267</v>
-      </c>
-      <c r="C25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25" s="55">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="45">
-        <v>45203</v>
-      </c>
-      <c r="C26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D26" t="s">
-        <v>268</v>
-      </c>
-      <c r="E26" s="55">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="45">
-        <v>45203</v>
-      </c>
-      <c r="C27" t="s">
-        <v>270</v>
-      </c>
-      <c r="D27" t="s">
-        <v>268</v>
-      </c>
-      <c r="E27" s="55">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="45">
-        <v>45203</v>
-      </c>
-      <c r="C28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D28" t="s">
-        <v>268</v>
-      </c>
-      <c r="E28" s="55">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="45">
-        <v>45203</v>
-      </c>
-      <c r="C29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D29" t="s">
-        <v>268</v>
-      </c>
-      <c r="E29" s="55">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="45">
-        <v>45162</v>
-      </c>
-      <c r="C30" t="s">
-        <v>274</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" s="54">
+        <v>30000</v>
+      </c>
+      <c r="F30" t="s">
         <v>284</v>
-      </c>
-      <c r="E30" s="55">
-        <v>30000</v>
-      </c>
-      <c r="F30" t="s">
-        <v>285</v>
       </c>
       <c r="G30">
         <v>17.45</v>
@@ -4711,21 +4714,21 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="45">
+      <c r="B31" s="44">
         <v>45161</v>
       </c>
       <c r="C31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E31">
         <f>1906+16571</f>
         <v>18477</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G31">
         <v>16.649999999999999</v>
@@ -4736,16 +4739,16 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="45">
+      <c r="B32" s="44">
         <v>45089</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E32" s="55">
+        <v>286</v>
+      </c>
+      <c r="E32" s="54">
         <v>1000</v>
       </c>
       <c r="G32">
@@ -4757,14 +4760,14 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="45">
+      <c r="B33" s="44">
         <v>45437</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E33">
         <f>14285+71428</f>
@@ -4773,8 +4776,8 @@
       <c r="G33">
         <v>16.87</v>
       </c>
-      <c r="H33" s="56" t="s">
-        <v>288</v>
+      <c r="H33" s="55" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4798,43 +4801,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>11</v>
+      <c r="A1" s="30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46">
+      <c r="B2" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45">
         <v>2003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46">
+      <c r="B3" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45">
         <v>2004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4">
         <v>2006</v>
@@ -4842,13 +4845,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
         <v>226</v>
-      </c>
-      <c r="D5" t="s">
-        <v>227</v>
       </c>
       <c r="E5">
         <v>2006</v>
@@ -4856,24 +4859,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="45">
+        <v>223</v>
+      </c>
+      <c r="E6" s="44">
         <v>40749</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E7">
         <v>2011</v>
@@ -4881,10 +4884,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8">
         <v>2011</v>
@@ -4892,10 +4895,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9">
         <v>2011</v>
@@ -4903,10 +4906,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10">
         <v>2014</v>
@@ -4914,40 +4917,40 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E11">
         <v>2015</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
-        <v>205</v>
+      <c r="B12" s="36" t="s">
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E12">
         <v>2015</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="46">
+      <c r="D13" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="45">
         <v>2017</v>
       </c>
     </row>
@@ -4972,153 +4975,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>11</v>
+      <c r="A1" s="30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5139,378 +5142,378 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="45.875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9" style="23"/>
-    <col min="5" max="5" width="10.25" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="4.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="45.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9" style="22"/>
+    <col min="5" max="5" width="10.25" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
+      <c r="A1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="22" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="23" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="23" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="23" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="C6" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="C6" s="23" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="C7" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="C8" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="C7" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="C10" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="C11" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="C12" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="C10" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="C11" s="23" t="s">
+      <c r="C14" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="C15" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="22" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="C12" s="23" t="s">
+      <c r="C34" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="C15" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="23" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="22" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="23" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE89993-F226-4301-A3F2-B81CB81B5519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1178B16-DF3E-4968-AA09-C9B753A664E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2520" windowWidth="22335" windowHeight="15210" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-22400" yWindow="440" windowWidth="19120" windowHeight="19600" activeTab="1" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Phase 2" sheetId="9" r:id="rId2"/>
-    <sheet name="Alzheimer's" sheetId="7" r:id="rId3"/>
-    <sheet name="Options" sheetId="3" r:id="rId4"/>
-    <sheet name="simufilam" sheetId="2" r:id="rId5"/>
-    <sheet name="Insiders" sheetId="10" r:id="rId6"/>
-    <sheet name="Prior Successes" sheetId="8" r:id="rId7"/>
-    <sheet name="Prior Failures" sheetId="6" r:id="rId8"/>
-    <sheet name="AB" sheetId="4" r:id="rId9"/>
-    <sheet name="FLNA" sheetId="5" r:id="rId10"/>
+    <sheet name="Glossary" sheetId="11" r:id="rId2"/>
+    <sheet name="Phase 2" sheetId="9" r:id="rId3"/>
+    <sheet name="Alzheimer's" sheetId="7" r:id="rId4"/>
+    <sheet name="Options" sheetId="3" r:id="rId5"/>
+    <sheet name="simufilam" sheetId="2" r:id="rId6"/>
+    <sheet name="Insiders" sheetId="10" r:id="rId7"/>
+    <sheet name="Prior Successes" sheetId="8" r:id="rId8"/>
+    <sheet name="Prior Failures" sheetId="6" r:id="rId9"/>
+    <sheet name="AB" sheetId="4" r:id="rId10"/>
+    <sheet name="FLNA" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="350">
   <si>
     <t>Price</t>
   </si>
@@ -960,6 +961,141 @@
   </si>
   <si>
     <t>Q324</t>
+  </si>
+  <si>
+    <t>Cash/Share</t>
+  </si>
+  <si>
+    <t>presenilin-1</t>
+  </si>
+  <si>
+    <t>apolipoprotein E</t>
+  </si>
+  <si>
+    <t>Also known as PSEN1 or PS-1, this chromosome 14 gene is associated with autosomal dominant early-onset Alzheimer's disease. Penetrance is close to 100%. PSEN1 is part of the gamma-secretase complex.</t>
+  </si>
+  <si>
+    <t>gamma secretase</t>
+  </si>
+  <si>
+    <t>amyloid precursor protein (APP)</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>see amyloid precursor protein</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>45m globally, 5th leading cause of death. 6m in US.</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>spreads after accumulation of amyloid beta</t>
+  </si>
+  <si>
+    <t>BACE</t>
+  </si>
+  <si>
+    <t>beta secretase, an enzyme which cleaves APP at its ectodomain</t>
+  </si>
+  <si>
+    <t>Enzyme which cleaves APP at intramembraneous sites.</t>
+  </si>
+  <si>
+    <t>NFTs</t>
+  </si>
+  <si>
+    <t>neurofibrillary tangles (tau)</t>
+  </si>
+  <si>
+    <t>Also AB or beta-amyloid. The 4kDa fragment of APP. Deposition precedes clinical manifestations by 20-30 years. First reported in 1984, it was found to be the primary constituent of brain deposits in Down. Then, AB aggregates were discovered to be the main component of neocortical neuritic plaques. Accumulation begins in brain regions with high metabolic activity rates.</t>
+  </si>
+  <si>
+    <t>presenilin-2</t>
+  </si>
+  <si>
+    <t>amyloid beta 1-40</t>
+  </si>
+  <si>
+    <t>amyloid beta 1-42</t>
+  </si>
+  <si>
+    <t>The origin of beta-amyloid, a chromosome 21 gene producing a protein which is widely produced by brain neurons, vascular and blood cells (platelets) and some astrocytes. Cleaved by BACE1 at the ectodomain and gamma-secretase at intra-membraneous sites. Mutations in APP can cause AD Alzheimer's. Gene duplications of APP also cause ADAD. There is even a protective variant (A673T) which reduces APP cleavage.</t>
+  </si>
+  <si>
+    <t>Mutations much more rare than PSEN1.</t>
+  </si>
+  <si>
+    <t>AICD</t>
+  </si>
+  <si>
+    <t>APP intracellular domain fragment</t>
+  </si>
+  <si>
+    <t>ADAM10</t>
+  </si>
+  <si>
+    <t>CLU</t>
+  </si>
+  <si>
+    <t>SORL1</t>
+  </si>
+  <si>
+    <t>CD33</t>
+  </si>
+  <si>
+    <t>PICALM</t>
+  </si>
+  <si>
+    <t>BIN1</t>
+  </si>
+  <si>
+    <t>CD2AP</t>
+  </si>
+  <si>
+    <t>ABCA7</t>
+  </si>
+  <si>
+    <t>RIN3</t>
+  </si>
+  <si>
+    <t>PTK2B</t>
+  </si>
+  <si>
+    <t>Molecular chaperone. Binds amyloid beta.</t>
+  </si>
+  <si>
+    <t>TREM2</t>
+  </si>
+  <si>
+    <t>IG receptor, binds lipids and AB.</t>
+  </si>
+  <si>
+    <t>Endocytic recycling and amyloid-beta production, membrane folding.</t>
+  </si>
+  <si>
+    <t>Endocytic receptor involved in uptake of lipoproteins, APP processing and lysosomal targeting of amyloid beta.</t>
+  </si>
+  <si>
+    <t>Transporter involved in cholesterol metabolism and phagocytic clearance of amyloid beta.</t>
+  </si>
+  <si>
+    <t>Metalloprotease which processes APP.</t>
+  </si>
+  <si>
+    <t>IGHG3</t>
+  </si>
+  <si>
+    <t>IG which creates antibodies which bind amyloid beta.</t>
+  </si>
+  <si>
+    <t>Chromosome 19 gene, 34-kDa, 299-AA ApoE protein. Expressed in astrocytes, microglia and other neurons. e4 allele causes AD, e2 protects, e3 is wildtype. Binds soluble amyloid beta and lipids. Homozygous e4 have 3-15x increase in AD.</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1351,6 +1487,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2955,28 +3092,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5403B-E27B-7442-9713-8F8BFE17F52A}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.4140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.08203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="1"/>
+    <col min="12" max="12" width="2.58203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
@@ -3002,7 +3139,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
@@ -3029,7 +3166,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="G4" s="10"/>
       <c r="I4" s="1" t="s">
@@ -3040,7 +3177,7 @@
         <v>1379.3147724999999</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="G5" s="10"/>
       <c r="I5" s="1" t="s">
@@ -3053,7 +3190,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="G6" s="10"/>
       <c r="I6" s="1" t="s">
@@ -3066,7 +3203,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="F7" s="42"/>
       <c r="G7" s="10"/>
@@ -3078,27 +3215,30 @@
         <v>1230.3147724999999</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
+      <c r="I8" s="63" t="s">
+        <v>305</v>
+      </c>
       <c r="J8" s="2">
         <f>+J5/J3</f>
         <v>3.105708780480708</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="24"/>
     </row>
   </sheetData>
@@ -3110,6 +3250,399 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF72D3-2991-459E-8CD9-066D094028D4}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9" style="22"/>
+    <col min="5" max="5" width="10.25" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="C6" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="C7" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="C8" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="C10" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="C11" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="C12" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="C15" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C47" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3DCC59B5-4B52-4B19-9497-5A1C7982EEF0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863BE7A-0CC4-4134-9143-01B1A2BD727E}">
   <dimension ref="A1:C39"/>
   <sheetViews>
@@ -3117,19 +3650,19 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
         <v>88</v>
       </c>
@@ -3137,7 +3670,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="50" t="s">
         <v>94</v>
       </c>
@@ -3145,17 +3678,17 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="50" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="50" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="50" t="s">
         <v>232</v>
       </c>
@@ -3163,37 +3696,37 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="50" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="50" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="50" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="50" t="s">
         <v>243</v>
       </c>
@@ -3201,17 +3734,17 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="50" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="50" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="50" t="s">
         <v>246</v>
       </c>
@@ -3219,17 +3752,17 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="50" t="s">
         <v>241</v>
       </c>
@@ -3237,7 +3770,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="50" t="s">
         <v>235</v>
       </c>
@@ -3245,7 +3778,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="50" t="s">
         <v>256</v>
       </c>
@@ -3253,7 +3786,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="50" t="s">
         <v>97</v>
       </c>
@@ -3261,67 +3794,67 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="50" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" s="50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C31" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="50" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="50" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="50" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="50" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="50" t="s">
         <v>260</v>
       </c>
@@ -3336,25 +3869,240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2E937E-E33F-4CD9-B3A5-EE10DE7F146E}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.25" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="63" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="63" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B61C95D2-6773-4DE1-8AB8-C9318FA6BBC7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDBF6CD-BB76-4181-B4DE-0DE80E7A6091}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="38"/>
     <col min="6" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="52"/>
       <c r="C2" s="38" t="s">
         <v>190</v>
@@ -3366,7 +4114,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="51" t="s">
         <v>263</v>
       </c>
@@ -3380,7 +4128,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
         <v>214</v>
       </c>
@@ -3403,7 +4151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ABFF95-7EFA-4FFF-9E22-334733664B4D}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3411,32 +4159,32 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" s="31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -3444,7 +4192,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>187</v>
       </c>
@@ -3452,47 +4200,47 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" s="31" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" s="31" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>196</v>
       </c>
@@ -3502,7 +4250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB174C9-0CD0-A84D-8068-D9E1E881842B}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -3510,21 +4258,21 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.875" style="1"/>
-    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="5.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3532,7 +4280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -3540,7 +4288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3552,7 +4300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3569,7 +4317,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
@@ -3580,7 +4328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -3591,7 +4339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -3608,7 +4356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3619,7 +4367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="8"/>
       <c r="E12" s="27" t="s">
@@ -3629,7 +4377,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>250</v>
       </c>
@@ -3649,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
         <v>146</v>
       </c>
@@ -3668,7 +4416,7 @@
         <v>1.7272727272727271</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
         <v>148</v>
       </c>
@@ -3687,7 +4435,7 @@
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
         <v>147</v>
       </c>
@@ -3706,7 +4454,7 @@
         <v>1.7586206896551726</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
         <v>153</v>
       </c>
@@ -3725,7 +4473,7 @@
         <v>0.81818181818181812</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
         <v>152</v>
       </c>
@@ -3744,7 +4492,7 @@
         <v>1.7272727272727271</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
         <v>154</v>
       </c>
@@ -3771,27 +4519,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="12" width="10.875" style="1"/>
-    <col min="13" max="13" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="1"/>
+    <col min="3" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3800,7 +4548,7 @@
       </c>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3808,7 +4556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3817,7 +4565,7 @@
       </c>
       <c r="H4" s="49"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3825,7 +4573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>73</v>
       </c>
@@ -3835,7 +4583,7 @@
       <c r="M6" s="56"/>
       <c r="N6" s="56"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="53">
         <f>1100*0.5^6*0.6</f>
@@ -3851,7 +4599,7 @@
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>44</v>
       </c>
@@ -3865,7 +4613,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3877,7 +4625,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
@@ -3889,7 +4637,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3900,7 +4648,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M12" s="56">
         <f>+M10*M11</f>
         <v>17500000</v>
@@ -3909,7 +4657,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M13" s="57">
         <v>0.5</v>
       </c>
@@ -3917,7 +4665,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
@@ -3929,7 +4677,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="61" t="s">
         <v>303</v>
       </c>
@@ -3941,7 +4689,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M16" s="56">
         <v>1250</v>
       </c>
@@ -3949,7 +4697,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="M17" s="56">
         <v>300</v>
       </c>
@@ -3957,7 +4705,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
@@ -3968,7 +4716,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3979,7 +4727,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="M20" s="56">
         <f>+M19*1000</f>
         <v>259350.00000000003</v>
@@ -3988,7 +4736,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="M21" s="56">
         <f>+M20*1000</f>
         <v>259350000.00000003</v>
@@ -3997,7 +4745,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>31</v>
       </c>
@@ -4009,7 +4757,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
@@ -4021,7 +4769,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
@@ -4031,7 +4779,7 @@
       </c>
       <c r="N24" s="56"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="M25" s="58">
         <f>+M16*M18*2</f>
         <v>25</v>
@@ -4040,14 +4788,14 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M26" s="56"/>
       <c r="N26" s="56"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" ht="13" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
@@ -4055,12 +4803,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="32" t="s">
         <v>189</v>
       </c>
@@ -4080,7 +4828,7 @@
         <v>0.89999999999999858</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="32" t="s">
         <v>190</v>
       </c>
@@ -4100,130 +4848,130 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C88" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C91" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C99" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C104" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="21" t="s">
         <v>87</v>
       </c>
@@ -4237,7 +4985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266BAC07-8D7E-4E5F-806E-F6ECB70F9CC7}">
   <dimension ref="B2:I33"/>
   <sheetViews>
@@ -4248,13 +4996,13 @@
       <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>265</v>
       </c>
@@ -4268,7 +5016,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="44">
         <v>45544</v>
       </c>
@@ -4288,7 +5036,7 @@
         <v>2600841</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="44">
         <v>45544</v>
       </c>
@@ -4302,7 +5050,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="44">
         <v>45544</v>
       </c>
@@ -4316,7 +5064,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="44">
         <v>45434</v>
       </c>
@@ -4330,7 +5078,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="44">
         <v>45434</v>
       </c>
@@ -4344,7 +5092,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="44">
         <v>45434</v>
       </c>
@@ -4358,7 +5106,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="44">
         <v>45434</v>
       </c>
@@ -4372,7 +5120,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="44">
         <v>45434</v>
       </c>
@@ -4389,7 +5137,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="44">
         <v>44694</v>
       </c>
@@ -4403,7 +5151,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="44">
         <v>44694</v>
       </c>
@@ -4417,7 +5165,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="44">
         <v>44694</v>
       </c>
@@ -4431,7 +5179,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="44">
         <v>44694</v>
       </c>
@@ -4445,7 +5193,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="44">
         <v>44694</v>
       </c>
@@ -4459,7 +5207,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="44">
         <v>44694</v>
       </c>
@@ -4473,7 +5221,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="44">
         <v>44694</v>
       </c>
@@ -4487,7 +5235,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="44">
         <v>44694</v>
       </c>
@@ -4501,7 +5249,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="44">
         <v>44681</v>
       </c>
@@ -4525,7 +5273,7 @@
         <v>1518000</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="44">
         <v>45407</v>
       </c>
@@ -4549,7 +5297,7 @@
         <v>3873870</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="44">
         <v>45404</v>
       </c>
@@ -4570,7 +5318,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="44">
         <v>45399</v>
       </c>
@@ -4591,7 +5339,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="44">
         <v>45268</v>
       </c>
@@ -4605,7 +5353,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="44">
         <v>45267</v>
       </c>
@@ -4619,7 +5367,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="44">
         <v>45267</v>
       </c>
@@ -4633,7 +5381,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="44">
         <v>45203</v>
       </c>
@@ -4647,7 +5395,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="44">
         <v>45203</v>
       </c>
@@ -4661,7 +5409,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="44">
         <v>45203</v>
       </c>
@@ -4675,7 +5423,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="44">
         <v>45203</v>
       </c>
@@ -4689,7 +5437,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="44">
         <v>45162</v>
       </c>
@@ -4713,7 +5461,7 @@
         <v>523500</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="44">
         <v>45161</v>
       </c>
@@ -4738,7 +5486,7 @@
         <v>307642.05</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="44">
         <v>45089</v>
       </c>
@@ -4759,7 +5507,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="44">
         <v>45437</v>
       </c>
@@ -4785,7 +5533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EE29F2-3957-4D7C-AE5D-DDC5FCCA90AD}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -4793,19 +5541,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" s="45" t="s">
         <v>205</v>
       </c>
@@ -4817,7 +5565,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="45" t="s">
         <v>228</v>
       </c>
@@ -4829,7 +5577,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -4843,7 +5591,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>202</v>
       </c>
@@ -4857,7 +5605,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>200</v>
       </c>
@@ -4871,7 +5619,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>211</v>
       </c>
@@ -4882,7 +5630,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>206</v>
       </c>
@@ -4893,7 +5641,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>207</v>
       </c>
@@ -4904,7 +5652,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>167</v>
       </c>
@@ -4915,7 +5663,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>203</v>
       </c>
@@ -4926,7 +5674,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="36" t="s">
         <v>204</v>
       </c>
@@ -4940,7 +5688,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="46" t="s">
         <v>208</v>
       </c>
@@ -4962,164 +5710,164 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBB5C22-BBD9-4AC3-B6BF-2498FD31D616}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>181</v>
       </c>
@@ -5130,397 +5878,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF72D3-2991-459E-8CD9-066D094028D4}">
-  <dimension ref="A1:F61"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="45.875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9" style="22"/>
-    <col min="5" max="5" width="10.25" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="C6" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="C7" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="C8" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="C10" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="C11" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="C12" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="C15" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3DCC59B5-4B52-4B19-9497-5A1C7982EEF0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/SAVA.xlsx
+++ b/SAVA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1178B16-DF3E-4968-AA09-C9B753A664E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52211E34-34AE-4E43-AC08-319C0A8308A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22400" yWindow="440" windowWidth="19120" windowHeight="19600" activeTab="1" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
+    <workbookView xWindow="-42225" yWindow="1440" windowWidth="19875" windowHeight="15990" xr2:uid="{E72B2B4C-5C13-AF4D-850F-73D2746B3A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="402">
   <si>
     <t>Price</t>
   </si>
@@ -1096,6 +1096,162 @@
   </si>
   <si>
     <t>Chromosome 19 gene, 34-kDa, 299-AA ApoE protein. Expressed in astrocytes, microglia and other neurons. e4 allele causes AD, e2 protects, e3 is wildtype. Binds soluble amyloid beta and lipids. Homozygous e4 have 3-15x increase in AD.</t>
+  </si>
+  <si>
+    <t>Full Analysis Set</t>
+  </si>
+  <si>
+    <t>Randomized</t>
+  </si>
+  <si>
+    <t>Completers</t>
+  </si>
+  <si>
+    <t>Pre-CWS</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>MMSE Mean</t>
+  </si>
+  <si>
+    <t>MMSE Range</t>
+  </si>
+  <si>
+    <t>21-30</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>ADAS-Cog11 Range</t>
+  </si>
+  <si>
+    <t>ADAS-Cog11 Mean</t>
+  </si>
+  <si>
+    <t>3-33</t>
+  </si>
+  <si>
+    <t>5-52</t>
+  </si>
+  <si>
+    <t>CWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Range</t>
+  </si>
+  <si>
+    <t>3-24</t>
+  </si>
+  <si>
+    <t>1-28</t>
+  </si>
+  <si>
+    <t>12-64</t>
+  </si>
+  <si>
+    <t>14-56</t>
+  </si>
+  <si>
+    <t>5-20</t>
+  </si>
+  <si>
+    <t>4-20</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>November 18th</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>November 19th</t>
+  </si>
+  <si>
+    <t>November 20th</t>
+  </si>
+  <si>
+    <t>November 21st</t>
+  </si>
+  <si>
+    <t>November 22nd</t>
+  </si>
+  <si>
+    <t>November 25th</t>
+  </si>
+  <si>
+    <t>November 26th</t>
+  </si>
+  <si>
+    <t>November 27th</t>
+  </si>
+  <si>
+    <t>November 29th</t>
+  </si>
+  <si>
+    <t>December 2nd</t>
+  </si>
+  <si>
+    <t>December 3rd</t>
+  </si>
+  <si>
+    <t>December 4th</t>
+  </si>
+  <si>
+    <t>December 5th</t>
+  </si>
+  <si>
+    <t>December 6th</t>
+  </si>
+  <si>
+    <t>December 9th</t>
+  </si>
+  <si>
+    <t>December 10th</t>
+  </si>
+  <si>
+    <t>December 11th</t>
+  </si>
+  <si>
+    <t>December 12th</t>
+  </si>
+  <si>
+    <t>December 13th</t>
+  </si>
+  <si>
+    <t>December 16th</t>
+  </si>
+  <si>
+    <t>December 17th</t>
+  </si>
+  <si>
+    <t>December 18th</t>
+  </si>
+  <si>
+    <t>December 19th</t>
+  </si>
+  <si>
+    <t>December 20th</t>
   </si>
 </sst>
 </file>
@@ -1109,13 +1265,19 @@
     <numFmt numFmtId="167" formatCode="#,##0.000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1401,93 +1563,110 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2515,7 +2694,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>789674</xdr:colOff>
+      <xdr:colOff>566044</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
@@ -2620,7 +2799,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>248919</xdr:colOff>
+      <xdr:colOff>313065</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
@@ -3090,30 +3269,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5403B-E27B-7442-9713-8F8BFE17F52A}">
-  <dimension ref="B2:K17"/>
+  <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.08203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.58203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
@@ -3139,7 +3318,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3345,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="G4" s="10"/>
       <c r="I4" s="1" t="s">
@@ -3177,7 +3356,7 @@
         <v>1379.3147724999999</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="G5" s="10"/>
       <c r="I5" s="1" t="s">
@@ -3190,7 +3369,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="G6" s="10"/>
       <c r="I6" s="1" t="s">
@@ -3203,7 +3382,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="F7" s="42"/>
       <c r="G7" s="10"/>
@@ -3215,7 +3394,7 @@
         <v>1230.3147724999999</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3230,16 +3409,595 @@
         <v>3.105708780480708</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="24"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G11" s="25">
+        <f>SUM(G12:G35)</f>
+        <v>0.95833333333333326</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25">
+        <f>1/E$35</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G12" s="25">
+        <f>+E12/$E$35/4</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H12" s="25">
+        <f>+G12</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="25">
+        <f>1/$E$35+F12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G13" s="25">
+        <f>+G12</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H13" s="25">
+        <f>+G13+H12</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="25">
+        <f>1/$E$35+F13</f>
+        <v>0.125</v>
+      </c>
+      <c r="G14" s="25">
+        <f>+G13*2</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H14" s="25">
+        <f>+G14+H13</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f>+K13*1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" ref="F15:F35" si="0">1/$E$35+F14</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G15" s="25">
+        <f>+G14</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H15" s="25">
+        <f>+G15+H14</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f>+K14*0.08</f>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+      <c r="F16" s="70">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="G16" s="70">
+        <f>+G15</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H16" s="70">
+        <f t="shared" ref="H16:H35" si="1">+G16+H15</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="G17" s="25">
+        <f>+G16</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="G18" s="25">
+        <f>+G17*2</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G19" s="25">
+        <f>+G18</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="1"/>
+        <v>0.18749999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="5">
+        <v>9</v>
+      </c>
+      <c r="F20" s="70">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="G20" s="70">
+        <f>+G19</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H20" s="70">
+        <f t="shared" si="1"/>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="1">
+        <f>+E20+1</f>
+        <v>10</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G21" s="25">
+        <f>+G20</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="1"/>
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="1">
+        <f>+E21+1</f>
+        <v>11</v>
+      </c>
+      <c r="F22" s="25">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="G22" s="25">
+        <f>+G21*2</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="1"/>
+        <v>0.35416666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" s="5">
+        <f>+E22+1</f>
+        <v>12</v>
+      </c>
+      <c r="F23" s="70">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="70">
+        <f>+G22*1.5</f>
+        <v>0.125</v>
+      </c>
+      <c r="H23" s="70">
+        <f t="shared" si="1"/>
+        <v>0.47916666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="E24" s="5">
+        <f>+E23+1</f>
+        <v>13</v>
+      </c>
+      <c r="F24" s="70">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G24" s="70">
+        <f t="shared" ref="G24:G35" si="2">+G23</f>
+        <v>0.125</v>
+      </c>
+      <c r="H24" s="70">
+        <f t="shared" si="1"/>
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="E25" s="1">
+        <f>+E24+1</f>
+        <v>14</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="G25" s="25">
+        <f>+G26*2</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="1"/>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="E26" s="1">
+        <f>+E25+1</f>
+        <v>15</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="0"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="G26" s="25">
+        <f>+G27</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="1"/>
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" s="1">
+        <f>+E26+1</f>
+        <v>16</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="G27" s="25">
+        <f>+G28</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" si="1"/>
+        <v>0.77083333333333326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="E28" s="1">
+        <f>+E27+1</f>
+        <v>17</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333315</v>
+      </c>
+      <c r="G28" s="25">
+        <f>+G29</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H28" s="25">
+        <f t="shared" si="1"/>
+        <v>0.81249999999999989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="E29" s="1">
+        <f>+E28+1</f>
+        <v>18</v>
+      </c>
+      <c r="F29" s="25">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="G29" s="25">
+        <f>+G30*2</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" si="1"/>
+        <v>0.85416666666666652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="E30" s="1">
+        <f>+E29+1</f>
+        <v>19</v>
+      </c>
+      <c r="F30" s="25">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666641</v>
+      </c>
+      <c r="G30" s="25">
+        <f>+G31</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87499999999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31" s="1">
+        <v>20</v>
+      </c>
+      <c r="F31" s="25">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="G31" s="25">
+        <f>+G32</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" si="1"/>
+        <v>0.89583333333333326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" s="1">
+        <v>21</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" si="0"/>
+        <v>0.87499999999999967</v>
+      </c>
+      <c r="G32" s="25">
+        <f>+G33</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="E33" s="1">
+        <v>22</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="0"/>
+        <v>0.9166666666666663</v>
+      </c>
+      <c r="G33" s="25">
+        <f>+G34*2</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="E34" s="1">
+        <v>23</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="0"/>
+        <v>0.95833333333333293</v>
+      </c>
+      <c r="G34" s="25">
+        <f>+G13</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H34" s="25">
+        <f t="shared" si="1"/>
+        <v>0.94791666666666663</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E35" s="5">
+        <v>24</v>
+      </c>
+      <c r="F35" s="70">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="G35" s="70">
+        <f>+G12</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H35" s="70">
+        <f t="shared" si="1"/>
+        <v>0.95833333333333326</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3257,22 +4015,22 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="45.875" style="22" customWidth="1"/>
     <col min="4" max="4" width="9" style="22"/>
     <col min="5" max="5" width="10.25" style="22" customWidth="1"/>
     <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="22" t="s">
         <v>88</v>
@@ -3281,7 +4039,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="22" t="s">
         <v>90</v>
@@ -3290,7 +4048,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="22" t="s">
         <v>92</v>
@@ -3299,7 +4057,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
         <v>94</v>
@@ -3308,25 +4066,25 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="C7" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="C8" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="22" t="s">
         <v>97</v>
@@ -3335,25 +4093,25 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="C11" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="C12" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="22" t="s">
         <v>133</v>
@@ -3362,7 +4120,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="22" t="s">
         <v>101</v>
@@ -3371,13 +4129,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="C15" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="22" t="s">
         <v>120</v>
@@ -3386,7 +4144,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="22" t="s">
         <v>104</v>
@@ -3395,7 +4153,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="22" t="s">
         <v>106</v>
@@ -3404,7 +4162,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="22" t="s">
         <v>108</v>
@@ -3413,15 +4171,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="22" t="s">
         <v>56</v>
       </c>
@@ -3429,7 +4187,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>58</v>
       </c>
@@ -3437,7 +4195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="22" t="s">
         <v>60</v>
       </c>
@@ -3445,7 +4203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="22" t="s">
         <v>63</v>
       </c>
@@ -3453,7 +4211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
         <v>64</v>
       </c>
@@ -3461,7 +4219,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="22" t="s">
         <v>67</v>
       </c>
@@ -3469,7 +4227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="22" t="s">
         <v>69</v>
       </c>
@@ -3477,7 +4235,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
         <v>71</v>
       </c>
@@ -3485,17 +4243,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F30" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
         <v>112</v>
       </c>
@@ -3503,132 +4261,132 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C35" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C36" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C37" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C38" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C39" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C40" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C41" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C42" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C43" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C44" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C45" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C47" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C48" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="22" t="s">
         <v>145</v>
       </c>
@@ -3650,19 +4408,19 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="50" t="s">
         <v>88</v>
       </c>
@@ -3670,7 +4428,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="50" t="s">
         <v>94</v>
       </c>
@@ -3678,17 +4436,17 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="50" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="50" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="50" t="s">
         <v>232</v>
       </c>
@@ -3696,37 +4454,37 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="50" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="50" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="50" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
         <v>243</v>
       </c>
@@ -3734,17 +4492,17 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="50" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="50" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="50" t="s">
         <v>246</v>
       </c>
@@ -3752,17 +4510,17 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" s="50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" s="50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="50" t="s">
         <v>241</v>
       </c>
@@ -3770,7 +4528,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="50" t="s">
         <v>235</v>
       </c>
@@ -3778,7 +4536,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="50" t="s">
         <v>256</v>
       </c>
@@ -3786,7 +4544,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="50" t="s">
         <v>97</v>
       </c>
@@ -3794,67 +4552,67 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C24" s="50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" s="50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C26" s="50" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C27" s="50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C29" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C31" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="50" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="50" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="50" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="50" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="50" t="s">
         <v>260</v>
       </c>
@@ -3872,23 +4630,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2E937E-E33F-4CD9-B3A5-EE10DE7F146E}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.25" style="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="63"/>
+    <col min="3" max="16384" width="8.625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="63" t="s">
         <v>337</v>
       </c>
@@ -3896,7 +4654,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="63" t="s">
         <v>330</v>
       </c>
@@ -3904,7 +4662,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="63" t="s">
         <v>328</v>
       </c>
@@ -3912,7 +4670,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="63" t="s">
         <v>313</v>
       </c>
@@ -3920,7 +4678,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="63" t="s">
         <v>89</v>
       </c>
@@ -3928,17 +4686,17 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="63" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="63" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="63" t="s">
         <v>310</v>
       </c>
@@ -3946,7 +4704,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="63" t="s">
         <v>307</v>
       </c>
@@ -3954,7 +4712,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="63" t="s">
         <v>311</v>
       </c>
@@ -3962,7 +4720,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="63" t="s">
         <v>317</v>
       </c>
@@ -3970,7 +4728,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="63" t="s">
         <v>335</v>
       </c>
@@ -3978,17 +4736,17 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="63" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="63" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="63" t="s">
         <v>331</v>
       </c>
@@ -3996,7 +4754,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="63" t="s">
         <v>309</v>
       </c>
@@ -4004,7 +4762,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="63" t="s">
         <v>347</v>
       </c>
@@ -4012,7 +4770,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="63" t="s">
         <v>306</v>
       </c>
@@ -4020,7 +4778,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="63" t="s">
         <v>323</v>
       </c>
@@ -4028,7 +4786,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="63" t="s">
         <v>320</v>
       </c>
@@ -4036,22 +4794,22 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="63" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="63" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="63" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="63" t="s">
         <v>332</v>
       </c>
@@ -4059,7 +4817,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="63" t="s">
         <v>315</v>
       </c>
@@ -4067,7 +4825,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="63" t="s">
         <v>341</v>
       </c>
@@ -4087,22 +4845,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDBF6CD-BB76-4181-B4DE-0DE80E7A6091}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="38"/>
     <col min="6" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="52"/>
       <c r="C2" s="38" t="s">
         <v>190</v>
@@ -4114,7 +4872,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="51" t="s">
         <v>263</v>
       </c>
@@ -4128,7 +4886,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>214</v>
       </c>
@@ -4159,32 +4917,32 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -4192,7 +4950,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>187</v>
       </c>
@@ -4200,47 +4958,47 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>196</v>
       </c>
@@ -4258,21 +5016,21 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.875" style="1"/>
+    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +5038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4288,7 +5046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -4300,7 +5058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -4317,7 +5075,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
@@ -4328,7 +5086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -4339,7 +5097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -4356,7 +5114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
@@ -4367,7 +5125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="8"/>
       <c r="E12" s="27" t="s">
@@ -4377,7 +5135,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="47" t="s">
         <v>250</v>
       </c>
@@ -4397,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>146</v>
       </c>
@@ -4416,7 +5174,7 @@
         <v>1.7272727272727271</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>148</v>
       </c>
@@ -4435,7 +5193,7 @@
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>147</v>
       </c>
@@ -4454,7 +5212,7 @@
         <v>1.7586206896551726</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>153</v>
       </c>
@@ -4473,7 +5231,7 @@
         <v>0.81818181818181812</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>152</v>
       </c>
@@ -4492,7 +5250,7 @@
         <v>1.7272727272727271</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>154</v>
       </c>
@@ -4521,25 +5279,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F2DA0E-1E5E-5D49-83D3-E69B2A0ECC96}">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="8" width="10.875" style="1"/>
+    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.875" style="1"/>
+    <col min="13" max="13" width="10.375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4548,7 +5310,7 @@
       </c>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4556,7 +5318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4565,7 +5327,7 @@
       </c>
       <c r="H4" s="49"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4573,7 +5335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>73</v>
       </c>
@@ -4583,7 +5345,7 @@
       <c r="M6" s="56"/>
       <c r="N6" s="56"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="53">
         <f>1100*0.5^6*0.6</f>
@@ -4599,203 +5361,354 @@
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="56">
+      <c r="P8" s="56">
         <v>50</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="Q8" s="56" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="56">
-        <f>M8*1000</f>
+      <c r="J9" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="P9" s="56">
+        <f>P8*1000</f>
         <v>50000</v>
       </c>
-      <c r="N9" s="56" t="s">
+      <c r="Q9" s="56" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="56">
-        <f>M9*1000</f>
+      <c r="J10" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="M10" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" s="56">
+        <f>P9*1000</f>
         <v>50000000</v>
       </c>
-      <c r="N10" s="56" t="s">
+      <c r="Q10" s="56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="57">
+      <c r="I11" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="J11" s="1">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1">
+        <v>39</v>
+      </c>
+      <c r="L11" s="1">
+        <v>41</v>
+      </c>
+      <c r="M11" s="1">
+        <v>39</v>
+      </c>
+      <c r="P11" s="57">
         <v>0.35</v>
       </c>
-      <c r="N11" s="56" t="s">
+      <c r="Q11" s="56" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M12" s="56">
-        <f>+M10*M11</f>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I12" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="J12" s="1">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="P12" s="56">
+        <f>+P10*P11</f>
         <v>17500000</v>
       </c>
-      <c r="N12" s="56" t="s">
+      <c r="Q12" s="56" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M13" s="57">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I13" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="L13" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="M13" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="P13" s="57">
         <v>0.5</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="Q13" s="56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="56">
-        <f>+M12*M13</f>
+      <c r="I14" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="J14" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="P14" s="56">
+        <f>+P12*P13</f>
         <v>8750000</v>
       </c>
-      <c r="N14" s="56" t="s">
+      <c r="Q14" s="56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="M15" s="56">
-        <f>+M14/1000</f>
+      <c r="I15" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="K15" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="M15" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="P15" s="56">
+        <f>+P14/1000</f>
         <v>8750</v>
       </c>
-      <c r="N15" s="56" t="s">
+      <c r="Q15" s="56" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M16" s="56">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P16" s="56">
         <v>1250</v>
       </c>
-      <c r="N16" s="56" t="s">
+      <c r="Q16" s="56" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M17" s="56">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P17" s="56">
         <v>300</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="Q17" s="56" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="56">
+      <c r="P18" s="56">
         <v>0.01</v>
       </c>
-      <c r="N18" s="56" t="s">
+      <c r="Q18" s="56" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="58">
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="P19" s="58">
         <v>259.35000000000002</v>
       </c>
-      <c r="N19" s="56" t="s">
+      <c r="Q19" s="56" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M20" s="56">
-        <f>+M19*1000</f>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="P20" s="56">
+        <f>+P19*1000</f>
         <v>259350.00000000003</v>
       </c>
-      <c r="N20" s="56" t="s">
+      <c r="Q20" s="56" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M21" s="56">
-        <f>+M20*1000</f>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="I21" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="K21" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="P21" s="56">
+        <f>+P20*1000</f>
         <v>259350000.00000003</v>
       </c>
-      <c r="N21" s="56" t="s">
+      <c r="Q21" s="56" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="3:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="59">
-        <f>+M15/M21</f>
+      <c r="I22" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="J22" s="68">
+        <v>133</v>
+      </c>
+      <c r="K22" s="68">
+        <v>83</v>
+      </c>
+      <c r="P22" s="59">
+        <f>+P15/P21</f>
         <v>3.3738191632928474E-5</v>
       </c>
-      <c r="N22" s="56" t="s">
+      <c r="Q22" s="56" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="60">
-        <f>+M22/1000</f>
+      <c r="I23" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="J23" s="68">
+        <v>15</v>
+      </c>
+      <c r="K23" s="68">
+        <v>25.7</v>
+      </c>
+      <c r="P23" s="60">
+        <f>+P22/1000</f>
         <v>3.3738191632928474E-8</v>
       </c>
-      <c r="N23" s="56" t="s">
+      <c r="Q23" s="56" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="58">
-        <f>+M23*10^9</f>
+      <c r="I24" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="P24" s="58">
+        <f>+P23*10^9</f>
         <v>33.738191632928476</v>
       </c>
-      <c r="N24" s="56"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M25" s="58">
-        <f>+M16*M18*2</f>
+      <c r="Q24" s="56"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="I25" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="J25" s="68">
+        <v>23.8</v>
+      </c>
+      <c r="K25" s="68">
+        <v>17.8</v>
+      </c>
+      <c r="P25" s="58">
+        <f>+P16*P18*2</f>
         <v>25</v>
       </c>
-      <c r="N25" s="56" t="s">
+      <c r="Q25" s="56" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="I26" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="K26" s="66" t="s">
+        <v>360</v>
+      </c>
       <c r="M26" s="56"/>
       <c r="N26" s="56"/>
     </row>
-    <row r="27" spans="3:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
@@ -4803,12 +5716,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="J28" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="32" t="s">
         <v>189</v>
       </c>
@@ -4827,8 +5746,15 @@
         <f>+D29-E29</f>
         <v>0.89999999999999858</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="J29" s="5">
+        <f>78+77</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="32" t="s">
         <v>190</v>
       </c>
@@ -4847,131 +5773,137 @@
         <f>+D30-E30</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I30" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="J30" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" s="21" t="s">
         <v>87</v>
       </c>
@@ -4996,13 +5928,13 @@
       <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>265</v>
       </c>
@@ -5016,7 +5948,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="44">
         <v>45544</v>
       </c>
@@ -5036,7 +5968,7 @@
         <v>2600841</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="44">
         <v>45544</v>
       </c>
@@ -5050,7 +5982,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="44">
         <v>45544</v>
       </c>
@@ -5064,7 +5996,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="44">
         <v>45434</v>
       </c>
@@ -5078,7 +6010,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="44">
         <v>45434</v>
       </c>
@@ -5092,7 +6024,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="44">
         <v>45434</v>
       </c>
@@ -5106,7 +6038,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="44">
         <v>45434</v>
       </c>
@@ -5120,7 +6052,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="44">
         <v>45434</v>
       </c>
@@ -5137,7 +6069,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="44">
         <v>44694</v>
       </c>
@@ -5151,7 +6083,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="44">
         <v>44694</v>
       </c>
@@ -5165,7 +6097,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="44">
         <v>44694</v>
       </c>
@@ -5179,7 +6111,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="44">
         <v>44694</v>
       </c>
@@ -5193,7 +6125,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="44">
         <v>44694</v>
       </c>
@@ -5207,7 +6139,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="44">
         <v>44694</v>
       </c>
@@ -5221,7 +6153,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="44">
         <v>44694</v>
       </c>
@@ -5235,7 +6167,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="44">
         <v>44694</v>
       </c>
@@ -5249,7 +6181,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="44">
         <v>44681</v>
       </c>
@@ -5273,7 +6205,7 @@
         <v>1518000</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="44">
         <v>45407</v>
       </c>
@@ -5297,7 +6229,7 @@
         <v>3873870</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="44">
         <v>45404</v>
       </c>
@@ -5318,7 +6250,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="44">
         <v>45399</v>
       </c>
@@ -5339,7 +6271,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="44">
         <v>45268</v>
       </c>
@@ -5353,7 +6285,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="44">
         <v>45267</v>
       </c>
@@ -5367,7 +6299,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="44">
         <v>45267</v>
       </c>
@@ -5381,7 +6313,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="44">
         <v>45203</v>
       </c>
@@ -5395,7 +6327,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="44">
         <v>45203</v>
       </c>
@@ -5409,7 +6341,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="44">
         <v>45203</v>
       </c>
@@ -5423,7 +6355,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="44">
         <v>45203</v>
       </c>
@@ -5437,7 +6369,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="44">
         <v>45162</v>
       </c>
@@ -5461,7 +6393,7 @@
         <v>523500</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="44">
         <v>45161</v>
       </c>
@@ -5486,7 +6418,7 @@
         <v>307642.05</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="44">
         <v>45089</v>
       </c>
@@ -5507,7 +6439,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="44">
         <v>45437</v>
       </c>
@@ -5541,19 +6473,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
         <v>205</v>
       </c>
@@ -5565,7 +6497,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="45" t="s">
         <v>228</v>
       </c>
@@ -5577,7 +6509,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -5591,7 +6523,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>202</v>
       </c>
@@ -5605,7 +6537,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>200</v>
       </c>
@@ -5619,7 +6551,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>211</v>
       </c>
@@ -5630,7 +6562,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>206</v>
       </c>
@@ -5641,7 +6573,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>207</v>
       </c>
@@ -5652,7 +6584,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>167</v>
       </c>
@@ -5663,7 +6595,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>203</v>
       </c>
@@ -5674,7 +6606,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
         <v>204</v>
       </c>
@@ -5688,7 +6620,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>208</v>
       </c>
@@ -5716,158 +6648,158 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>181</v>
       </c>
